--- a/outputs/expansao_ms_atualizado.xlsx
+++ b/outputs/expansao_ms_atualizado.xlsx
@@ -101,7 +101,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="21">
     <fill>
       <patternFill/>
     </fill>
@@ -166,6 +166,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FF6666"/>
         <bgColor rgb="00FF6666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00008000"/>
+        <bgColor rgb="00008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDEE00"/>
+        <bgColor rgb="00FDEE00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000BFFF"/>
+        <bgColor rgb="0000BFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA500"/>
+        <bgColor rgb="00FFA500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -333,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -424,22 +454,37 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5557,237 +5602,237 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B2" s="32" t="inlineStr">
+      <c r="B2" s="33" t="inlineStr">
         <is>
           <t>Alto Paraíso</t>
         </is>
       </c>
-      <c r="C2" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32" t="inlineStr">
+      <c r="C2" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="33" t="inlineStr">
         <is>
           <t>Danúbia Hotrich dos Santos Silva</t>
         </is>
       </c>
-      <c r="E2" s="33" t="inlineStr">
+      <c r="E2" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F2" s="32" t="inlineStr">
+      <c r="F2" s="33" t="inlineStr">
         <is>
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="G2" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H2" s="32" t="n"/>
-      <c r="I2" s="32" t="n"/>
-      <c r="J2" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="32" t="n"/>
+      <c r="G2" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H2" s="33" t="n"/>
+      <c r="I2" s="33" t="n"/>
+      <c r="J2" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="33" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="inlineStr">
+      <c r="A3" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B3" s="32" t="inlineStr">
+      <c r="B3" s="33" t="inlineStr">
         <is>
           <t>Alto Piquiri</t>
         </is>
       </c>
-      <c r="C3" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="32" t="inlineStr">
+      <c r="C3" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="33" t="inlineStr">
         <is>
           <t>Beatriz Piffer</t>
         </is>
       </c>
-      <c r="E3" s="35" t="inlineStr">
+      <c r="E3" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F3" s="32" t="n"/>
-      <c r="G3" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="32" t="n"/>
-      <c r="I3" s="32" t="n"/>
-      <c r="J3" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K3" s="32" t="n"/>
+      <c r="F3" s="33" t="n"/>
+      <c r="G3" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="33" t="n"/>
+      <c r="I3" s="33" t="n"/>
+      <c r="J3" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="33" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="32" t="inlineStr">
+      <c r="A4" s="38" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
       </c>
-      <c r="B4" s="32" t="inlineStr">
+      <c r="B4" s="33" t="inlineStr">
         <is>
           <t>Bela Vista da Caroba</t>
         </is>
       </c>
-      <c r="C4" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="32" t="n"/>
-      <c r="E4" s="36" t="inlineStr">
+      <c r="C4" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="33" t="n"/>
+      <c r="E4" s="39" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
-      <c r="F4" s="32" t="n"/>
-      <c r="G4" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="32" t="n"/>
-      <c r="I4" s="32" t="n"/>
-      <c r="J4" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="32" t="n"/>
+      <c r="F4" s="33" t="n"/>
+      <c r="G4" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H4" s="33" t="n"/>
+      <c r="I4" s="33" t="n"/>
+      <c r="J4" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="33" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="32" t="inlineStr">
+      <c r="A5" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B5" s="32" t="inlineStr">
+      <c r="B5" s="33" t="inlineStr">
         <is>
           <t>Cafezal do Sul</t>
         </is>
       </c>
-      <c r="C5" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="32" t="inlineStr">
+      <c r="C5" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="33" t="inlineStr">
         <is>
           <t>Ana Paula Freire</t>
         </is>
       </c>
-      <c r="E5" s="33" t="inlineStr">
+      <c r="E5" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F5" s="32" t="inlineStr">
+      <c r="F5" s="33" t="inlineStr">
         <is>
           <t>11/09/2025</t>
         </is>
       </c>
-      <c r="G5" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H5" s="32" t="n"/>
-      <c r="I5" s="32" t="n"/>
-      <c r="J5" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K5" s="32" t="n"/>
+      <c r="G5" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H5" s="33" t="n"/>
+      <c r="I5" s="33" t="n"/>
+      <c r="J5" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" s="33" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="32" t="inlineStr">
+      <c r="A6" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B6" s="32" t="inlineStr">
+      <c r="B6" s="33" t="inlineStr">
         <is>
           <t>Cruzeiro do Oeste</t>
         </is>
       </c>
-      <c r="C6" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="32" t="inlineStr">
+      <c r="C6" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="33" t="inlineStr">
         <is>
           <t>Leonardo Zavilenski Fogaça</t>
         </is>
       </c>
-      <c r="E6" s="35" t="inlineStr">
+      <c r="E6" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F6" s="32" t="n"/>
-      <c r="G6" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H6" s="32" t="n"/>
-      <c r="I6" s="32" t="n"/>
-      <c r="J6" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K6" s="32" t="n"/>
+      <c r="F6" s="33" t="n"/>
+      <c r="G6" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H6" s="33" t="n"/>
+      <c r="I6" s="33" t="n"/>
+      <c r="J6" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K6" s="33" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="32" t="inlineStr">
+      <c r="A7" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B7" s="32" t="inlineStr">
+      <c r="B7" s="33" t="inlineStr">
         <is>
           <t>Diamante do Norte</t>
         </is>
       </c>
-      <c r="C7" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="32" t="inlineStr">
+      <c r="C7" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="33" t="inlineStr">
         <is>
           <t>Armindo Ferreira da Silva</t>
         </is>
       </c>
-      <c r="E7" s="35" t="inlineStr">
+      <c r="E7" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F7" s="32" t="n"/>
-      <c r="G7" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H7" s="32" t="n"/>
-      <c r="I7" s="32" t="n"/>
-      <c r="J7" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K7" s="32" t="n"/>
+      <c r="F7" s="33" t="n"/>
+      <c r="G7" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H7" s="33" t="n"/>
+      <c r="I7" s="33" t="n"/>
+      <c r="J7" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K7" s="33" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="32" t="inlineStr">
@@ -5795,42 +5840,42 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B8" s="32" t="inlineStr">
+      <c r="B8" s="33" t="inlineStr">
         <is>
           <t>Douradina</t>
         </is>
       </c>
-      <c r="C8" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="32" t="inlineStr">
+      <c r="C8" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="33" t="inlineStr">
         <is>
           <t>Henderson Heim</t>
         </is>
       </c>
-      <c r="E8" s="33" t="inlineStr">
+      <c r="E8" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F8" s="32" t="inlineStr">
+      <c r="F8" s="33" t="inlineStr">
         <is>
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="G8" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H8" s="32" t="n"/>
-      <c r="I8" s="32" t="n"/>
-      <c r="J8" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K8" s="32" t="n"/>
+      <c r="G8" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H8" s="33" t="n"/>
+      <c r="I8" s="33" t="n"/>
+      <c r="J8" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K8" s="33" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="32" t="inlineStr">
@@ -5838,42 +5883,42 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B9" s="32" t="inlineStr">
+      <c r="B9" s="33" t="inlineStr">
         <is>
           <t>Esperança Nova</t>
         </is>
       </c>
-      <c r="C9" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="32" t="inlineStr">
+      <c r="C9" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="33" t="inlineStr">
         <is>
           <t>Helton Pinto de Castro</t>
         </is>
       </c>
-      <c r="E9" s="33" t="inlineStr">
+      <c r="E9" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F9" s="32" t="inlineStr">
+      <c r="F9" s="33" t="inlineStr">
         <is>
           <t>16/09/2025</t>
         </is>
       </c>
-      <c r="G9" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H9" s="32" t="n"/>
-      <c r="I9" s="32" t="n"/>
-      <c r="J9" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K9" s="32" t="n"/>
+      <c r="G9" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H9" s="33" t="n"/>
+      <c r="I9" s="33" t="n"/>
+      <c r="J9" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K9" s="33" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="32" t="inlineStr">
@@ -5881,198 +5926,206 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B10" s="32" t="inlineStr">
+      <c r="B10" s="33" t="inlineStr">
         <is>
           <t>Icaraíma</t>
         </is>
       </c>
-      <c r="C10" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="32" t="inlineStr">
+      <c r="C10" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="33" t="inlineStr">
         <is>
           <t>Jose roberto pogioli</t>
         </is>
       </c>
-      <c r="E10" s="35" t="inlineStr">
+      <c r="E10" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F10" s="33" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="G10" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H10" s="33" t="n"/>
+      <c r="I10" s="33" t="n"/>
+      <c r="J10" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K10" s="33" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="36" t="inlineStr">
+        <is>
+          <t>Cibax</t>
+        </is>
+      </c>
+      <c r="B11" s="33" t="inlineStr">
+        <is>
+          <t>Iporã</t>
+        </is>
+      </c>
+      <c r="C11" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="33" t="inlineStr">
+        <is>
+          <t>Analigia de Santana Abreu</t>
+        </is>
+      </c>
+      <c r="E11" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F11" s="33" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="G11" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H11" s="33" t="n"/>
+      <c r="I11" s="33" t="n"/>
+      <c r="J11" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K11" s="33" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="36" t="inlineStr">
+        <is>
+          <t>Cibax</t>
+        </is>
+      </c>
+      <c r="B12" s="33" t="inlineStr">
+        <is>
+          <t>Ivaté</t>
+        </is>
+      </c>
+      <c r="C12" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anderson Bergamasco Hryczyna </t>
+        </is>
+      </c>
+      <c r="E12" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F12" s="33" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="G12" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H12" s="33" t="n"/>
+      <c r="I12" s="33" t="n"/>
+      <c r="J12" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K12" s="33" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="40" t="inlineStr">
+        <is>
+          <t>Comafen</t>
+        </is>
+      </c>
+      <c r="B13" s="33" t="inlineStr">
+        <is>
+          <t>Itauna do Sul</t>
+        </is>
+      </c>
+      <c r="C13" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33" t="inlineStr">
+        <is>
+          <t>Andressa da Silva</t>
+        </is>
+      </c>
+      <c r="E13" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F10" s="32" t="n"/>
-      <c r="G10" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H10" s="32" t="n"/>
-      <c r="I10" s="32" t="n"/>
-      <c r="J10" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K10" s="32" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="32" t="inlineStr">
-        <is>
-          <t>Cibax</t>
-        </is>
-      </c>
-      <c r="B11" s="32" t="inlineStr">
-        <is>
-          <t>Iporã</t>
-        </is>
-      </c>
-      <c r="C11" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="32" t="inlineStr">
-        <is>
-          <t>Analigia de Santana Abreu</t>
-        </is>
-      </c>
-      <c r="E11" s="33" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F11" s="32" t="inlineStr">
-        <is>
-          <t>22/09/2025</t>
-        </is>
-      </c>
-      <c r="G11" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H11" s="32" t="n"/>
-      <c r="I11" s="32" t="n"/>
-      <c r="J11" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K11" s="32" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="32" t="inlineStr">
-        <is>
-          <t>Cibax</t>
-        </is>
-      </c>
-      <c r="B12" s="32" t="inlineStr">
-        <is>
-          <t>Ivaté</t>
-        </is>
-      </c>
-      <c r="C12" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anderson Bergamasco Hryczyna </t>
-        </is>
-      </c>
-      <c r="E12" s="35" t="inlineStr">
+      <c r="F13" s="33" t="n"/>
+      <c r="G13" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H13" s="33" t="n"/>
+      <c r="I13" s="33" t="n"/>
+      <c r="J13" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K13" s="33" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="40" t="inlineStr">
+        <is>
+          <t>Comafen</t>
+        </is>
+      </c>
+      <c r="B14" s="33" t="inlineStr">
+        <is>
+          <t>Loanda</t>
+        </is>
+      </c>
+      <c r="C14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="33" t="inlineStr">
+        <is>
+          <t>Isadora Gil</t>
+        </is>
+      </c>
+      <c r="E14" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F12" s="32" t="n"/>
-      <c r="G12" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H12" s="32" t="n"/>
-      <c r="I12" s="32" t="n"/>
-      <c r="J12" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K12" s="32" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="32" t="inlineStr">
-        <is>
-          <t>Comafen</t>
-        </is>
-      </c>
-      <c r="B13" s="32" t="inlineStr">
-        <is>
-          <t>Itauna do Sul</t>
-        </is>
-      </c>
-      <c r="C13" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="32" t="inlineStr">
-        <is>
-          <t>Andressa da Silva</t>
-        </is>
-      </c>
-      <c r="E13" s="35" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F13" s="32" t="n"/>
-      <c r="G13" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H13" s="32" t="n"/>
-      <c r="I13" s="32" t="n"/>
-      <c r="J13" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K13" s="32" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="32" t="inlineStr">
-        <is>
-          <t>Comafen</t>
-        </is>
-      </c>
-      <c r="B14" s="32" t="inlineStr">
-        <is>
-          <t>Loanda</t>
-        </is>
-      </c>
-      <c r="C14" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="32" t="inlineStr">
-        <is>
-          <t>Isadora Gil</t>
-        </is>
-      </c>
-      <c r="E14" s="35" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F14" s="32" t="n"/>
-      <c r="G14" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H14" s="32" t="n"/>
-      <c r="I14" s="32" t="n"/>
-      <c r="J14" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K14" s="32" t="n"/>
+      <c r="F14" s="33" t="n"/>
+      <c r="G14" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H14" s="33" t="n"/>
+      <c r="I14" s="33" t="n"/>
+      <c r="J14" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K14" s="33" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="32" t="inlineStr">
@@ -6080,163 +6133,167 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B15" s="32" t="inlineStr">
+      <c r="B15" s="33" t="inlineStr">
         <is>
           <t>Maria Helena</t>
         </is>
       </c>
-      <c r="C15" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="32" t="inlineStr">
+      <c r="C15" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="33" t="inlineStr">
         <is>
           <t>Marcella Regyna Scarassatti</t>
         </is>
       </c>
-      <c r="E15" s="35" t="inlineStr">
+      <c r="E15" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F15" s="33" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="G15" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H15" s="33" t="n"/>
+      <c r="I15" s="33" t="n"/>
+      <c r="J15" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K15" s="33" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="40" t="inlineStr">
+        <is>
+          <t>Comafen</t>
+        </is>
+      </c>
+      <c r="B16" s="33" t="inlineStr">
+        <is>
+          <t>Marilena</t>
+        </is>
+      </c>
+      <c r="C16" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="33" t="inlineStr">
+        <is>
+          <t>Emerson Henrique Moreira</t>
+        </is>
+      </c>
+      <c r="E16" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F15" s="32" t="n"/>
-      <c r="G15" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H15" s="32" t="n"/>
-      <c r="I15" s="32" t="n"/>
-      <c r="J15" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K15" s="32" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="32" t="inlineStr">
+      <c r="F16" s="33" t="n"/>
+      <c r="G16" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H16" s="33" t="n"/>
+      <c r="I16" s="33" t="n"/>
+      <c r="J16" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K16" s="33" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="36" t="inlineStr">
+        <is>
+          <t>Cibax</t>
+        </is>
+      </c>
+      <c r="B17" s="33" t="inlineStr">
+        <is>
+          <t>Mariluz</t>
+        </is>
+      </c>
+      <c r="C17" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="33" t="inlineStr">
+        <is>
+          <t>Fabio Soares Clemente</t>
+        </is>
+      </c>
+      <c r="E17" s="41" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
+        </is>
+      </c>
+      <c r="F17" s="33" t="inlineStr">
+        <is>
+          <t>19/09/2025, 25/09/2025</t>
+        </is>
+      </c>
+      <c r="G17" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H17" s="33" t="n"/>
+      <c r="I17" s="33" t="n"/>
+      <c r="J17" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K17" s="33" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B16" s="32" t="inlineStr">
-        <is>
-          <t>Marilena</t>
-        </is>
-      </c>
-      <c r="C16" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="32" t="inlineStr">
-        <is>
-          <t>Emerson Henrique Moreira</t>
-        </is>
-      </c>
-      <c r="E16" s="35" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F16" s="32" t="n"/>
-      <c r="G16" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H16" s="32" t="n"/>
-      <c r="I16" s="32" t="n"/>
-      <c r="J16" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K16" s="32" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="32" t="inlineStr">
-        <is>
-          <t>Cibax</t>
-        </is>
-      </c>
-      <c r="B17" s="32" t="inlineStr">
-        <is>
-          <t>Mariluz</t>
-        </is>
-      </c>
-      <c r="C17" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="32" t="inlineStr">
-        <is>
-          <t>Fabio Soares Clemente</t>
-        </is>
-      </c>
-      <c r="E17" s="37" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
-        </is>
-      </c>
-      <c r="F17" s="32" t="inlineStr">
-        <is>
-          <t>19/09/2025, 25/09/2025</t>
-        </is>
-      </c>
-      <c r="G17" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H17" s="32" t="n"/>
-      <c r="I17" s="32" t="n"/>
-      <c r="J17" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K17" s="32" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="32" t="inlineStr">
-        <is>
-          <t>Comafen</t>
-        </is>
-      </c>
-      <c r="B18" s="32" t="inlineStr">
+      <c r="B18" s="33" t="inlineStr">
         <is>
           <t>Nova Londrina</t>
         </is>
       </c>
-      <c r="C18" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="32" t="inlineStr">
+      <c r="C18" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="33" t="inlineStr">
         <is>
           <t>Valdirlei de Araujo</t>
         </is>
       </c>
-      <c r="E18" s="33" t="inlineStr">
+      <c r="E18" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F18" s="32" t="inlineStr">
+      <c r="F18" s="33" t="inlineStr">
         <is>
           <t>18/09/2025</t>
         </is>
       </c>
-      <c r="G18" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H18" s="32" t="n"/>
-      <c r="I18" s="32" t="n"/>
-      <c r="J18" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K18" s="32" t="n"/>
+      <c r="G18" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H18" s="33" t="n"/>
+      <c r="I18" s="33" t="n"/>
+      <c r="J18" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K18" s="33" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="32" t="inlineStr">
@@ -6244,420 +6301,424 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B19" s="32" t="inlineStr">
+      <c r="B19" s="33" t="inlineStr">
         <is>
           <t>Nova Olimpia</t>
         </is>
       </c>
-      <c r="C19" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="32" t="inlineStr">
+      <c r="C19" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="33" t="inlineStr">
         <is>
           <t>Glassys Louise de Souza Cortez</t>
         </is>
       </c>
-      <c r="E19" s="33" t="inlineStr">
+      <c r="E19" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F19" s="32" t="inlineStr">
+      <c r="F19" s="33" t="inlineStr">
         <is>
           <t>17/09/2025</t>
         </is>
       </c>
-      <c r="G19" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H19" s="32" t="n"/>
-      <c r="I19" s="32" t="n"/>
-      <c r="J19" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K19" s="32" t="n"/>
+      <c r="G19" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H19" s="33" t="n"/>
+      <c r="I19" s="33" t="n"/>
+      <c r="J19" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K19" s="33" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="32" t="inlineStr">
+      <c r="A20" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B20" s="32" t="inlineStr">
+      <c r="B20" s="33" t="inlineStr">
         <is>
           <t>Perobal</t>
         </is>
       </c>
-      <c r="C20" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="32" t="inlineStr">
+      <c r="C20" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="33" t="inlineStr">
         <is>
           <t>Octavio Fellipe j Barbosa</t>
         </is>
       </c>
-      <c r="E20" s="35" t="inlineStr">
+      <c r="E20" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F20" s="32" t="n"/>
-      <c r="G20" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H20" s="32" t="n"/>
-      <c r="I20" s="32" t="n"/>
-      <c r="J20" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K20" s="32" t="n"/>
+      <c r="F20" s="33" t="n"/>
+      <c r="G20" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H20" s="33" t="n"/>
+      <c r="I20" s="33" t="n"/>
+      <c r="J20" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K20" s="33" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="32" t="inlineStr">
+      <c r="A21" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B21" s="32" t="inlineStr">
+      <c r="B21" s="33" t="inlineStr">
         <is>
           <t>Pérola</t>
         </is>
       </c>
-      <c r="C21" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="32" t="inlineStr">
+      <c r="C21" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="33" t="inlineStr">
         <is>
           <t>Rony Eduardo Souza Terra</t>
         </is>
       </c>
-      <c r="E21" s="35" t="inlineStr">
+      <c r="E21" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F21" s="32" t="n"/>
-      <c r="G21" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H21" s="32" t="n"/>
-      <c r="I21" s="32" t="n"/>
-      <c r="J21" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K21" s="32" t="n"/>
+      <c r="F21" s="33" t="n"/>
+      <c r="G21" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H21" s="33" t="n"/>
+      <c r="I21" s="33" t="n"/>
+      <c r="J21" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K21" s="33" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="32" t="inlineStr">
+      <c r="A22" s="38" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
       </c>
-      <c r="B22" s="32" t="inlineStr">
+      <c r="B22" s="33" t="inlineStr">
         <is>
           <t>Perola d'Oeste</t>
         </is>
       </c>
-      <c r="C22" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="32" t="n"/>
-      <c r="E22" s="36" t="inlineStr">
+      <c r="C22" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="33" t="n"/>
+      <c r="E22" s="39" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
-      <c r="F22" s="32" t="n"/>
-      <c r="G22" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H22" s="32" t="n"/>
-      <c r="I22" s="32" t="n"/>
-      <c r="J22" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K22" s="32" t="n"/>
+      <c r="F22" s="33" t="n"/>
+      <c r="G22" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H22" s="33" t="n"/>
+      <c r="I22" s="33" t="n"/>
+      <c r="J22" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K22" s="33" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="32" t="inlineStr">
+      <c r="A23" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B23" s="32" t="inlineStr">
+      <c r="B23" s="33" t="inlineStr">
         <is>
           <t>Planaltina do Paraná</t>
         </is>
       </c>
-      <c r="C23" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="32" t="inlineStr">
+      <c r="C23" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="33" t="inlineStr">
         <is>
           <t>Angelo Cesar Favaro</t>
         </is>
       </c>
-      <c r="E23" s="35" t="inlineStr">
+      <c r="E23" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F23" s="32" t="n"/>
-      <c r="G23" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H23" s="32" t="n"/>
-      <c r="I23" s="32" t="n"/>
-      <c r="J23" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K23" s="32" t="n"/>
+      <c r="F23" s="33" t="n"/>
+      <c r="G23" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H23" s="33" t="n"/>
+      <c r="I23" s="33" t="n"/>
+      <c r="J23" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K23" s="33" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="32" t="inlineStr">
+      <c r="A24" s="38" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
       </c>
-      <c r="B24" s="32" t="inlineStr">
+      <c r="B24" s="33" t="inlineStr">
         <is>
           <t>Planalto</t>
         </is>
       </c>
-      <c r="C24" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="32" t="n"/>
-      <c r="E24" s="36" t="inlineStr">
+      <c r="C24" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="33" t="n"/>
+      <c r="E24" s="39" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
-      <c r="F24" s="32" t="n"/>
-      <c r="G24" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H24" s="32" t="n"/>
-      <c r="I24" s="32" t="n"/>
-      <c r="J24" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K24" s="32" t="n"/>
+      <c r="F24" s="33" t="n"/>
+      <c r="G24" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H24" s="33" t="n"/>
+      <c r="I24" s="33" t="n"/>
+      <c r="J24" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K24" s="33" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="32" t="inlineStr">
+      <c r="A25" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B25" s="32" t="inlineStr">
+      <c r="B25" s="33" t="inlineStr">
         <is>
           <t>Porto Rico</t>
         </is>
       </c>
-      <c r="C25" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="32" t="inlineStr">
+      <c r="C25" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="33" t="inlineStr">
         <is>
           <t>Ana Julia Pereira</t>
         </is>
       </c>
-      <c r="E25" s="35" t="inlineStr">
+      <c r="E25" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F25" s="32" t="n"/>
-      <c r="G25" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H25" s="32" t="n"/>
-      <c r="I25" s="32" t="n"/>
-      <c r="J25" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K25" s="32" t="n"/>
+      <c r="F25" s="33" t="n"/>
+      <c r="G25" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H25" s="33" t="n"/>
+      <c r="I25" s="33" t="n"/>
+      <c r="J25" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K25" s="33" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="32" t="inlineStr">
+      <c r="A26" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B26" s="32" t="inlineStr">
+      <c r="B26" s="33" t="inlineStr">
         <is>
           <t>Querencia do Norte</t>
         </is>
       </c>
-      <c r="C26" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="32" t="inlineStr">
+      <c r="C26" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="33" t="inlineStr">
         <is>
           <t>Aparecido dos Santos</t>
         </is>
       </c>
-      <c r="E26" s="35" t="inlineStr">
+      <c r="E26" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F26" s="32" t="n"/>
-      <c r="G26" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H26" s="32" t="n"/>
-      <c r="I26" s="32" t="n"/>
-      <c r="J26" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K26" s="32" t="n"/>
+      <c r="F26" s="33" t="n"/>
+      <c r="G26" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H26" s="33" t="n"/>
+      <c r="I26" s="33" t="n"/>
+      <c r="J26" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K26" s="33" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="32" t="inlineStr">
+      <c r="A27" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B27" s="32" t="inlineStr">
+      <c r="B27" s="33" t="inlineStr">
         <is>
           <t>Santa Cruz do Monte Castelo</t>
         </is>
       </c>
-      <c r="C27" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="32" t="inlineStr">
+      <c r="C27" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="33" t="inlineStr">
         <is>
           <t>Joao Lucas Côrtes Silva Freitas</t>
         </is>
       </c>
-      <c r="E27" s="35" t="inlineStr">
+      <c r="E27" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F27" s="32" t="n"/>
-      <c r="G27" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H27" s="32" t="n"/>
-      <c r="I27" s="32" t="n"/>
-      <c r="J27" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K27" s="32" t="n"/>
+      <c r="F27" s="33" t="n"/>
+      <c r="G27" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H27" s="33" t="n"/>
+      <c r="I27" s="33" t="n"/>
+      <c r="J27" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K27" s="33" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="32" t="inlineStr">
+      <c r="A28" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B28" s="32" t="inlineStr">
+      <c r="B28" s="33" t="inlineStr">
         <is>
           <t>Santa Isabel do Ivai</t>
         </is>
       </c>
-      <c r="C28" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="32" t="inlineStr">
+      <c r="C28" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="33" t="inlineStr">
         <is>
           <t>Jose Antonio Pinheiro Munhoz</t>
         </is>
       </c>
-      <c r="E28" s="35" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F28" s="32" t="n"/>
-      <c r="G28" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H28" s="32" t="n"/>
-      <c r="I28" s="32" t="n"/>
-      <c r="J28" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K28" s="32" t="n"/>
+      <c r="E28" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F28" s="33" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="G28" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H28" s="33" t="n"/>
+      <c r="I28" s="33" t="n"/>
+      <c r="J28" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K28" s="33" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="32" t="inlineStr">
+      <c r="A29" s="38" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
       </c>
-      <c r="B29" s="32" t="inlineStr">
+      <c r="B29" s="33" t="inlineStr">
         <is>
           <t>Santo Antonio do Sudoeste</t>
         </is>
       </c>
-      <c r="C29" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="32" t="n"/>
-      <c r="E29" s="36" t="inlineStr">
+      <c r="C29" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="33" t="n"/>
+      <c r="E29" s="39" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
-      <c r="F29" s="32" t="n"/>
-      <c r="G29" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H29" s="32" t="n"/>
-      <c r="I29" s="32" t="n"/>
-      <c r="J29" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K29" s="32" t="n"/>
+      <c r="F29" s="33" t="n"/>
+      <c r="G29" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H29" s="33" t="n"/>
+      <c r="I29" s="33" t="n"/>
+      <c r="J29" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K29" s="33" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="32" t="inlineStr">
@@ -6665,81 +6726,81 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B30" s="32" t="inlineStr">
+      <c r="B30" s="33" t="inlineStr">
         <is>
           <t>São Jorge do Patrocinio</t>
         </is>
       </c>
-      <c r="C30" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="32" t="inlineStr">
+      <c r="C30" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="33" t="inlineStr">
         <is>
           <t>Alana Bardela dos Santos</t>
         </is>
       </c>
-      <c r="E30" s="33" t="inlineStr">
+      <c r="E30" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F30" s="32" t="inlineStr">
+      <c r="F30" s="33" t="inlineStr">
         <is>
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="G30" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H30" s="32" t="n"/>
-      <c r="I30" s="32" t="n"/>
-      <c r="J30" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K30" s="32" t="n"/>
+      <c r="G30" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H30" s="33" t="n"/>
+      <c r="I30" s="33" t="n"/>
+      <c r="J30" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K30" s="33" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="32" t="inlineStr">
+      <c r="A31" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B31" s="32" t="inlineStr">
+      <c r="B31" s="33" t="inlineStr">
         <is>
           <t>São Pedro do Paraná</t>
         </is>
       </c>
-      <c r="C31" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="32" t="inlineStr">
+      <c r="C31" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="33" t="inlineStr">
         <is>
           <t>Diogo Augusto Graeff Vizini</t>
         </is>
       </c>
-      <c r="E31" s="35" t="inlineStr">
+      <c r="E31" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F31" s="32" t="n"/>
-      <c r="G31" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H31" s="32" t="n"/>
-      <c r="I31" s="32" t="n"/>
-      <c r="J31" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K31" s="32" t="n"/>
+      <c r="F31" s="33" t="n"/>
+      <c r="G31" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H31" s="33" t="n"/>
+      <c r="I31" s="33" t="n"/>
+      <c r="J31" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K31" s="33" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="32" t="inlineStr">
@@ -6747,643 +6808,651 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B32" s="32" t="inlineStr">
+      <c r="B32" s="33" t="inlineStr">
         <is>
           <t>Tapira</t>
         </is>
       </c>
-      <c r="C32" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="32" t="inlineStr">
+      <c r="C32" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="33" t="inlineStr">
         <is>
           <t>Tiago Cabrera de Oliveira</t>
         </is>
       </c>
-      <c r="E32" s="35" t="inlineStr">
+      <c r="E32" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F32" s="32" t="n"/>
-      <c r="G32" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H32" s="32" t="n"/>
-      <c r="I32" s="32" t="n"/>
-      <c r="J32" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K32" s="32" t="n"/>
+      <c r="F32" s="33" t="n"/>
+      <c r="G32" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H32" s="33" t="n"/>
+      <c r="I32" s="33" t="n"/>
+      <c r="J32" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K32" s="33" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="32" t="inlineStr">
+      <c r="A33" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B33" s="32" t="inlineStr">
+      <c r="B33" s="33" t="inlineStr">
         <is>
           <t>Umuarama</t>
         </is>
       </c>
-      <c r="C33" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="32" t="inlineStr">
+      <c r="C33" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="33" t="inlineStr">
         <is>
           <t>Vanessa Diovana Biassi Soares</t>
         </is>
       </c>
-      <c r="E33" s="35" t="inlineStr">
+      <c r="E33" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F33" s="33" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="G33" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H33" s="33" t="n"/>
+      <c r="I33" s="33" t="n"/>
+      <c r="J33" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K33" s="33" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="36" t="inlineStr">
+        <is>
+          <t>Cibax</t>
+        </is>
+      </c>
+      <c r="B34" s="33" t="inlineStr">
+        <is>
+          <t>Xambre</t>
+        </is>
+      </c>
+      <c r="C34" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="33" t="inlineStr">
+        <is>
+          <t>Carlos Eduardo Meira Freire</t>
+        </is>
+      </c>
+      <c r="E34" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F34" s="33" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="G34" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H34" s="33" t="n"/>
+      <c r="I34" s="33" t="n"/>
+      <c r="J34" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K34" s="33" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="42" t="inlineStr">
+        <is>
+          <t>Conisul</t>
+        </is>
+      </c>
+      <c r="B35" s="33" t="inlineStr">
+        <is>
+          <t>Amambai</t>
+        </is>
+      </c>
+      <c r="C35" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="33" t="inlineStr">
+        <is>
+          <t>Vania Tomazelli de Lima</t>
+        </is>
+      </c>
+      <c r="E35" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F33" s="32" t="n"/>
-      <c r="G33" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H33" s="32" t="n"/>
-      <c r="I33" s="32" t="n"/>
-      <c r="J33" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K33" s="32" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="32" t="inlineStr">
-        <is>
-          <t>Cibax</t>
-        </is>
-      </c>
-      <c r="B34" s="32" t="inlineStr">
-        <is>
-          <t>Xambre</t>
-        </is>
-      </c>
-      <c r="C34" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="32" t="inlineStr">
-        <is>
-          <t>Carlos Eduardo Meira Freire</t>
-        </is>
-      </c>
-      <c r="E34" s="33" t="inlineStr">
+      <c r="F35" s="33" t="n"/>
+      <c r="G35" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H35" s="33" t="n"/>
+      <c r="I35" s="33" t="n"/>
+      <c r="J35" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K35" s="33" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="42" t="inlineStr">
+        <is>
+          <t>Conisul</t>
+        </is>
+      </c>
+      <c r="B36" s="33" t="inlineStr">
+        <is>
+          <t>Aral Moreira</t>
+        </is>
+      </c>
+      <c r="C36" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="33" t="inlineStr">
+        <is>
+          <t>Jose Elias Calonga Cunha</t>
+        </is>
+      </c>
+      <c r="E36" s="37" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F36" s="33" t="n"/>
+      <c r="G36" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H36" s="33" t="n"/>
+      <c r="I36" s="33" t="n"/>
+      <c r="J36" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K36" s="33" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="42" t="inlineStr">
+        <is>
+          <t>Conisul</t>
+        </is>
+      </c>
+      <c r="B37" s="33" t="inlineStr">
+        <is>
+          <t>Caarapó</t>
+        </is>
+      </c>
+      <c r="C37" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="33" t="inlineStr">
+        <is>
+          <t>Gustavo Becker Modesto Silva</t>
+        </is>
+      </c>
+      <c r="E37" s="37" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F37" s="33" t="n"/>
+      <c r="G37" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H37" s="33" t="n"/>
+      <c r="I37" s="33" t="n"/>
+      <c r="J37" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K37" s="33" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="42" t="inlineStr">
+        <is>
+          <t>Conisul</t>
+        </is>
+      </c>
+      <c r="B38" s="33" t="inlineStr">
+        <is>
+          <t>Coronel Sapucaia</t>
+        </is>
+      </c>
+      <c r="C38" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="33" t="inlineStr">
+        <is>
+          <t>Wendel Ortiz dos Santos</t>
+        </is>
+      </c>
+      <c r="E38" s="37" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F38" s="33" t="n"/>
+      <c r="G38" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H38" s="33" t="n"/>
+      <c r="I38" s="33" t="n"/>
+      <c r="J38" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K38" s="33" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="42" t="inlineStr">
+        <is>
+          <t>Conisul</t>
+        </is>
+      </c>
+      <c r="B39" s="33" t="inlineStr">
+        <is>
+          <t>Eldorado</t>
+        </is>
+      </c>
+      <c r="C39" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="33" t="inlineStr">
+        <is>
+          <t>Edvaldo José de Souza</t>
+        </is>
+      </c>
+      <c r="E39" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F34" s="32" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="G34" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H34" s="32" t="n"/>
-      <c r="I34" s="32" t="n"/>
-      <c r="J34" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K34" s="32" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="32" t="inlineStr">
+      <c r="F39" s="33" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="G39" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H39" s="33" t="n"/>
+      <c r="I39" s="33" t="n"/>
+      <c r="J39" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K39" s="33" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B35" s="32" t="inlineStr">
-        <is>
-          <t>Amambai</t>
-        </is>
-      </c>
-      <c r="C35" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="32" t="inlineStr">
-        <is>
-          <t>Vania Tomazelli de Lima</t>
-        </is>
-      </c>
-      <c r="E35" s="35" t="inlineStr">
+      <c r="B40" s="33" t="inlineStr">
+        <is>
+          <t>Iguatemi</t>
+        </is>
+      </c>
+      <c r="C40" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="33" t="inlineStr">
+        <is>
+          <t>Sirlei Aparecida Costa Souza</t>
+        </is>
+      </c>
+      <c r="E40" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F35" s="32" t="n"/>
-      <c r="G35" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H35" s="32" t="n"/>
-      <c r="I35" s="32" t="n"/>
-      <c r="J35" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K35" s="32" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="32" t="inlineStr">
+      <c r="F40" s="33" t="n"/>
+      <c r="G40" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H40" s="33" t="n"/>
+      <c r="I40" s="33" t="n"/>
+      <c r="J40" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K40" s="33" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B36" s="32" t="inlineStr">
-        <is>
-          <t>Aral Moreira</t>
-        </is>
-      </c>
-      <c r="C36" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="32" t="inlineStr">
-        <is>
-          <t>Jose Elias Calonga Cunha</t>
-        </is>
-      </c>
-      <c r="E36" s="35" t="inlineStr">
+      <c r="B41" s="33" t="inlineStr">
+        <is>
+          <t>Itaquiraí</t>
+        </is>
+      </c>
+      <c r="C41" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="33" t="inlineStr">
+        <is>
+          <t>Fredson Julio de Oliveira</t>
+        </is>
+      </c>
+      <c r="E41" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F36" s="32" t="n"/>
-      <c r="G36" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H36" s="32" t="n"/>
-      <c r="I36" s="32" t="n"/>
-      <c r="J36" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K36" s="32" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="32" t="inlineStr">
+      <c r="F41" s="33" t="n"/>
+      <c r="G41" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H41" s="33" t="n"/>
+      <c r="I41" s="33" t="n"/>
+      <c r="J41" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K41" s="33" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B37" s="32" t="inlineStr">
-        <is>
-          <t>Caarapó</t>
-        </is>
-      </c>
-      <c r="C37" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="32" t="inlineStr">
-        <is>
-          <t>Gustavo Becker Modesto Silva</t>
-        </is>
-      </c>
-      <c r="E37" s="35" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F37" s="32" t="n"/>
-      <c r="G37" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H37" s="32" t="n"/>
-      <c r="I37" s="32" t="n"/>
-      <c r="J37" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K37" s="32" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="32" t="inlineStr">
+      <c r="B42" s="33" t="inlineStr">
+        <is>
+          <t>Japorã</t>
+        </is>
+      </c>
+      <c r="C42" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="33" t="inlineStr">
+        <is>
+          <t>Mayara Cristina Neves Abel</t>
+        </is>
+      </c>
+      <c r="E42" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F42" s="33" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="G42" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H42" s="33" t="n"/>
+      <c r="I42" s="33" t="n"/>
+      <c r="J42" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K42" s="33" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B38" s="32" t="inlineStr">
-        <is>
-          <t>Coronel Sapucaia</t>
-        </is>
-      </c>
-      <c r="C38" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="32" t="inlineStr">
-        <is>
-          <t>Wendel Ortiz dos Santos</t>
-        </is>
-      </c>
-      <c r="E38" s="35" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F38" s="32" t="n"/>
-      <c r="G38" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H38" s="32" t="n"/>
-      <c r="I38" s="32" t="n"/>
-      <c r="J38" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K38" s="32" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="32" t="inlineStr">
+      <c r="B43" s="33" t="inlineStr">
+        <is>
+          <t>Juti</t>
+        </is>
+      </c>
+      <c r="C43" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="33" t="inlineStr">
+        <is>
+          <t>Leandra Aymê Alves Elias Assumpcao</t>
+        </is>
+      </c>
+      <c r="E43" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F43" s="33" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="G43" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H43" s="33" t="n"/>
+      <c r="I43" s="33" t="n"/>
+      <c r="J43" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K43" s="33" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B39" s="32" t="inlineStr">
-        <is>
-          <t>Eldorado</t>
-        </is>
-      </c>
-      <c r="C39" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="32" t="inlineStr">
-        <is>
-          <t>Edvaldo José de Souza</t>
-        </is>
-      </c>
-      <c r="E39" s="33" t="inlineStr">
+      <c r="B44" s="33" t="inlineStr">
+        <is>
+          <t>Naviraí</t>
+        </is>
+      </c>
+      <c r="C44" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="33" t="inlineStr">
+        <is>
+          <t>Camila Bomfim de Carvalho Ferreira</t>
+        </is>
+      </c>
+      <c r="E44" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F39" s="32" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="G39" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H39" s="32" t="n"/>
-      <c r="I39" s="32" t="n"/>
-      <c r="J39" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K39" s="32" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="32" t="inlineStr">
+      <c r="F44" s="33" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="G44" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H44" s="33" t="n"/>
+      <c r="I44" s="33" t="n"/>
+      <c r="J44" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K44" s="33" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B40" s="32" t="inlineStr">
-        <is>
-          <t>Iguatemi</t>
-        </is>
-      </c>
-      <c r="C40" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="32" t="inlineStr">
-        <is>
-          <t>Sirlei Aparecida Costa Souza</t>
-        </is>
-      </c>
-      <c r="E40" s="35" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F40" s="32" t="n"/>
-      <c r="G40" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H40" s="32" t="n"/>
-      <c r="I40" s="32" t="n"/>
-      <c r="J40" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K40" s="32" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="32" t="inlineStr">
+      <c r="B45" s="33" t="inlineStr">
+        <is>
+          <t>Paranhos</t>
+        </is>
+      </c>
+      <c r="C45" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="33" t="inlineStr">
+        <is>
+          <t>Paulo Ricardo Klaus</t>
+        </is>
+      </c>
+      <c r="E45" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F45" s="33" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="G45" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H45" s="33" t="n"/>
+      <c r="I45" s="33" t="n"/>
+      <c r="J45" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K45" s="33" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B41" s="32" t="inlineStr">
-        <is>
-          <t>Itaquiraí</t>
-        </is>
-      </c>
-      <c r="C41" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="32" t="inlineStr">
-        <is>
-          <t>Fredson Julio de Oliveira</t>
-        </is>
-      </c>
-      <c r="E41" s="35" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F41" s="32" t="n"/>
-      <c r="G41" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H41" s="32" t="n"/>
-      <c r="I41" s="32" t="n"/>
-      <c r="J41" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K41" s="32" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="32" t="inlineStr">
+      <c r="B46" s="33" t="inlineStr">
+        <is>
+          <t>Sete Quedas</t>
+        </is>
+      </c>
+      <c r="C46" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="33" t="n"/>
+      <c r="E46" s="39" t="inlineStr">
+        <is>
+          <t>Sem Técnico</t>
+        </is>
+      </c>
+      <c r="F46" s="33" t="n"/>
+      <c r="G46" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H46" s="33" t="n"/>
+      <c r="I46" s="33" t="n"/>
+      <c r="J46" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K46" s="33" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B42" s="32" t="inlineStr">
-        <is>
-          <t>Japorã</t>
-        </is>
-      </c>
-      <c r="C42" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="32" t="inlineStr">
-        <is>
-          <t>Mayara Cristina Neves Abel</t>
-        </is>
-      </c>
-      <c r="E42" s="33" t="inlineStr">
+      <c r="B47" s="33" t="inlineStr">
+        <is>
+          <t>Tacuru</t>
+        </is>
+      </c>
+      <c r="C47" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="33" t="inlineStr">
+        <is>
+          <t>Adiel Correia Nogueira</t>
+        </is>
+      </c>
+      <c r="E47" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F42" s="32" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="G42" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H42" s="32" t="n"/>
-      <c r="I42" s="32" t="n"/>
-      <c r="J42" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K42" s="32" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="32" t="inlineStr">
-        <is>
-          <t>Conisul</t>
-        </is>
-      </c>
-      <c r="B43" s="32" t="inlineStr">
-        <is>
-          <t>Juti</t>
-        </is>
-      </c>
-      <c r="C43" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="32" t="inlineStr">
-        <is>
-          <t>Leandra Aymê Alves Elias Assumpcao</t>
-        </is>
-      </c>
-      <c r="E43" s="35" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F43" s="32" t="n"/>
-      <c r="G43" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H43" s="32" t="n"/>
-      <c r="I43" s="32" t="n"/>
-      <c r="J43" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K43" s="32" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="32" t="inlineStr">
-        <is>
-          <t>Conisul</t>
-        </is>
-      </c>
-      <c r="B44" s="32" t="inlineStr">
-        <is>
-          <t>Naviraí</t>
-        </is>
-      </c>
-      <c r="C44" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="32" t="inlineStr">
-        <is>
-          <t>Camila Bomfim de Carvalho Ferreira</t>
-        </is>
-      </c>
-      <c r="E44" s="33" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F44" s="32" t="inlineStr">
-        <is>
-          <t>23/09/2025</t>
-        </is>
-      </c>
-      <c r="G44" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H44" s="32" t="n"/>
-      <c r="I44" s="32" t="n"/>
-      <c r="J44" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K44" s="32" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="32" t="inlineStr">
-        <is>
-          <t>Conisul</t>
-        </is>
-      </c>
-      <c r="B45" s="32" t="inlineStr">
-        <is>
-          <t>Paranhos</t>
-        </is>
-      </c>
-      <c r="C45" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="32" t="inlineStr">
-        <is>
-          <t>Paulo Ricardo Klaus</t>
-        </is>
-      </c>
-      <c r="E45" s="33" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F45" s="32" t="inlineStr">
+      <c r="F47" s="33" t="inlineStr">
         <is>
           <t>16/09/2025</t>
         </is>
       </c>
-      <c r="G45" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H45" s="32" t="n"/>
-      <c r="I45" s="32" t="n"/>
-      <c r="J45" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K45" s="32" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="32" t="inlineStr">
-        <is>
-          <t>Conisul</t>
-        </is>
-      </c>
-      <c r="B46" s="32" t="inlineStr">
-        <is>
-          <t>Sete Quedas</t>
-        </is>
-      </c>
-      <c r="C46" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="32" t="n"/>
-      <c r="E46" s="36" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F46" s="32" t="n"/>
-      <c r="G46" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H46" s="32" t="n"/>
-      <c r="I46" s="32" t="n"/>
-      <c r="J46" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K46" s="32" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="32" t="inlineStr">
-        <is>
-          <t>Conisul</t>
-        </is>
-      </c>
-      <c r="B47" s="32" t="inlineStr">
-        <is>
-          <t>Tacuru</t>
-        </is>
-      </c>
-      <c r="C47" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="32" t="inlineStr">
-        <is>
-          <t>Adiel Correia Nogueira</t>
-        </is>
-      </c>
-      <c r="E47" s="33" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F47" s="32" t="inlineStr">
-        <is>
-          <t>16/09/2025</t>
-        </is>
-      </c>
-      <c r="G47" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H47" s="32" t="n"/>
-      <c r="I47" s="32" t="n"/>
-      <c r="J47" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K47" s="32" t="n"/>
+      <c r="G47" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H47" s="33" t="n"/>
+      <c r="I47" s="33" t="n"/>
+      <c r="J47" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K47" s="33" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -7529,231 +7598,231 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B2" s="32" t="inlineStr">
+      <c r="B2" s="33" t="inlineStr">
         <is>
           <t>Alto Paraíso</t>
         </is>
       </c>
-      <c r="C2" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32">
+      <c r="C2" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="35" t="inlineStr">
+      <c r="E2" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F2" s="32" t="n"/>
-      <c r="G2" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H2" s="32" t="n"/>
-      <c r="I2" s="32" t="n"/>
-      <c r="J2" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="32" t="n"/>
+      <c r="F2" s="33" t="n"/>
+      <c r="G2" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H2" s="33" t="n"/>
+      <c r="I2" s="33" t="n"/>
+      <c r="J2" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="33" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="inlineStr">
+      <c r="A3" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B3" s="32" t="inlineStr">
+      <c r="B3" s="33" t="inlineStr">
         <is>
           <t>Alto Piquiri</t>
         </is>
       </c>
-      <c r="C3" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="32">
+      <c r="C3" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="35" t="inlineStr">
+      <c r="E3" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F3" s="32" t="n"/>
-      <c r="G3" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="32" t="n"/>
-      <c r="I3" s="32" t="n"/>
-      <c r="J3" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K3" s="32" t="n"/>
+      <c r="F3" s="33" t="n"/>
+      <c r="G3" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="33" t="n"/>
+      <c r="I3" s="33" t="n"/>
+      <c r="J3" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="33" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="32" t="inlineStr">
+      <c r="A4" s="38" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
       </c>
-      <c r="B4" s="32" t="inlineStr">
+      <c r="B4" s="33" t="inlineStr">
         <is>
           <t>Bela Vista da Caroba</t>
         </is>
       </c>
-      <c r="C4" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="32">
+      <c r="C4" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="36" t="inlineStr">
+      <c r="E4" s="39" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
-      <c r="F4" s="32" t="n"/>
-      <c r="G4" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="32" t="n"/>
-      <c r="I4" s="32" t="n"/>
-      <c r="J4" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="32" t="n"/>
+      <c r="F4" s="33" t="n"/>
+      <c r="G4" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H4" s="33" t="n"/>
+      <c r="I4" s="33" t="n"/>
+      <c r="J4" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="33" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="32" t="inlineStr">
+      <c r="A5" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B5" s="32" t="inlineStr">
+      <c r="B5" s="33" t="inlineStr">
         <is>
           <t>Cafezal do Sul</t>
         </is>
       </c>
-      <c r="C5" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="32">
+      <c r="C5" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="33" t="inlineStr">
+      <c r="E5" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F5" s="32" t="inlineStr">
+      <c r="F5" s="33" t="inlineStr">
         <is>
           <t>17/09/2025</t>
         </is>
       </c>
-      <c r="G5" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H5" s="32" t="n"/>
-      <c r="I5" s="32" t="n"/>
-      <c r="J5" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K5" s="32" t="n"/>
+      <c r="G5" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H5" s="33" t="n"/>
+      <c r="I5" s="33" t="n"/>
+      <c r="J5" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" s="33" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="32" t="inlineStr">
+      <c r="A6" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B6" s="32" t="inlineStr">
+      <c r="B6" s="33" t="inlineStr">
         <is>
           <t>Cruzeiro do Oeste</t>
         </is>
       </c>
-      <c r="C6" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="32">
+      <c r="C6" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="35" t="inlineStr">
+      <c r="E6" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F6" s="32" t="n"/>
-      <c r="G6" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H6" s="32" t="n"/>
-      <c r="I6" s="32" t="n"/>
-      <c r="J6" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K6" s="32" t="n"/>
+      <c r="F6" s="33" t="n"/>
+      <c r="G6" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H6" s="33" t="n"/>
+      <c r="I6" s="33" t="n"/>
+      <c r="J6" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K6" s="33" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="32" t="inlineStr">
+      <c r="A7" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B7" s="32" t="inlineStr">
+      <c r="B7" s="33" t="inlineStr">
         <is>
           <t>Diamante do Norte</t>
         </is>
       </c>
-      <c r="C7" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="32">
+      <c r="C7" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="35" t="inlineStr">
+      <c r="E7" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F7" s="32" t="n"/>
-      <c r="G7" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H7" s="32" t="n"/>
-      <c r="I7" s="32" t="n"/>
-      <c r="J7" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K7" s="32" t="n"/>
+      <c r="F7" s="33" t="n"/>
+      <c r="G7" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H7" s="33" t="n"/>
+      <c r="I7" s="33" t="n"/>
+      <c r="J7" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K7" s="33" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="32" t="inlineStr">
@@ -7761,41 +7830,41 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B8" s="32" t="inlineStr">
+      <c r="B8" s="33" t="inlineStr">
         <is>
           <t>Douradina</t>
         </is>
       </c>
-      <c r="C8" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="32">
+      <c r="C8" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="33" t="inlineStr">
+      <c r="E8" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F8" s="32" t="inlineStr">
+      <c r="F8" s="33" t="inlineStr">
         <is>
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="G8" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H8" s="32" t="n"/>
-      <c r="I8" s="32" t="n"/>
-      <c r="J8" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K8" s="32" t="n"/>
+      <c r="G8" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H8" s="33" t="n"/>
+      <c r="I8" s="33" t="n"/>
+      <c r="J8" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K8" s="33" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="32" t="inlineStr">
@@ -7803,37 +7872,37 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B9" s="32" t="inlineStr">
+      <c r="B9" s="33" t="inlineStr">
         <is>
           <t>Esperança Nova</t>
         </is>
       </c>
-      <c r="C9" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="32">
+      <c r="C9" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="35" t="inlineStr">
+      <c r="E9" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F9" s="32" t="n"/>
-      <c r="G9" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H9" s="32" t="n"/>
-      <c r="I9" s="32" t="n"/>
-      <c r="J9" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K9" s="32" t="n"/>
+      <c r="F9" s="33" t="n"/>
+      <c r="G9" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H9" s="33" t="n"/>
+      <c r="I9" s="33" t="n"/>
+      <c r="J9" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K9" s="33" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="32" t="inlineStr">
@@ -7841,193 +7910,197 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B10" s="32" t="inlineStr">
+      <c r="B10" s="33" t="inlineStr">
         <is>
           <t>Icaraíma</t>
         </is>
       </c>
-      <c r="C10" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="32">
+      <c r="C10" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="35" t="inlineStr">
+      <c r="E10" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F10" s="32" t="n"/>
-      <c r="G10" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H10" s="32" t="n"/>
-      <c r="I10" s="32" t="n"/>
-      <c r="J10" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K10" s="32" t="n"/>
+      <c r="F10" s="33" t="n"/>
+      <c r="G10" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H10" s="33" t="n"/>
+      <c r="I10" s="33" t="n"/>
+      <c r="J10" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K10" s="33" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="32" t="inlineStr">
+      <c r="A11" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B11" s="32" t="inlineStr">
+      <c r="B11" s="33" t="inlineStr">
         <is>
           <t>Iporã</t>
         </is>
       </c>
-      <c r="C11" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="32">
+      <c r="C11" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="33" t="inlineStr">
+      <c r="E11" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F11" s="32" t="inlineStr">
+      <c r="F11" s="33" t="inlineStr">
         <is>
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="G11" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H11" s="32" t="n"/>
-      <c r="I11" s="32" t="n"/>
-      <c r="J11" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K11" s="32" t="n"/>
+      <c r="G11" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H11" s="33" t="n"/>
+      <c r="I11" s="33" t="n"/>
+      <c r="J11" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K11" s="33" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="32" t="inlineStr">
+      <c r="A12" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B12" s="32" t="inlineStr">
+      <c r="B12" s="33" t="inlineStr">
         <is>
           <t>Ivaté</t>
         </is>
       </c>
-      <c r="C12" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="32">
+      <c r="C12" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="35" t="inlineStr">
+      <c r="E12" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F12" s="33" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="G12" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H12" s="33" t="n"/>
+      <c r="I12" s="33" t="n"/>
+      <c r="J12" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K12" s="33" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="40" t="inlineStr">
+        <is>
+          <t>Comafen</t>
+        </is>
+      </c>
+      <c r="B13" s="33" t="inlineStr">
+        <is>
+          <t>Itauna do Sul</t>
+        </is>
+      </c>
+      <c r="C13" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
+      <c r="E13" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F12" s="32" t="n"/>
-      <c r="G12" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H12" s="32" t="n"/>
-      <c r="I12" s="32" t="n"/>
-      <c r="J12" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K12" s="32" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="32" t="inlineStr">
+      <c r="F13" s="33" t="n"/>
+      <c r="G13" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H13" s="33" t="n"/>
+      <c r="I13" s="33" t="n"/>
+      <c r="J13" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K13" s="33" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B13" s="32" t="inlineStr">
-        <is>
-          <t>Itauna do Sul</t>
-        </is>
-      </c>
-      <c r="C13" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="32">
-        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
-      </c>
-      <c r="E13" s="35" t="inlineStr">
+      <c r="B14" s="33" t="inlineStr">
+        <is>
+          <t>Loanda</t>
+        </is>
+      </c>
+      <c r="C14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="33">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
+      <c r="E14" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F13" s="32" t="n"/>
-      <c r="G13" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H13" s="32" t="n"/>
-      <c r="I13" s="32" t="n"/>
-      <c r="J13" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K13" s="32" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="32" t="inlineStr">
-        <is>
-          <t>Comafen</t>
-        </is>
-      </c>
-      <c r="B14" s="32" t="inlineStr">
-        <is>
-          <t>Loanda</t>
-        </is>
-      </c>
-      <c r="C14" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="32">
-        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
-      </c>
-      <c r="E14" s="35" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F14" s="32" t="n"/>
-      <c r="G14" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H14" s="32" t="n"/>
-      <c r="I14" s="32" t="n"/>
-      <c r="J14" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K14" s="32" t="n"/>
+      <c r="F14" s="33" t="n"/>
+      <c r="G14" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H14" s="33" t="n"/>
+      <c r="I14" s="33" t="n"/>
+      <c r="J14" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K14" s="33" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="32" t="inlineStr">
@@ -8035,155 +8108,155 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B15" s="32" t="inlineStr">
+      <c r="B15" s="33" t="inlineStr">
         <is>
           <t>Maria Helena</t>
         </is>
       </c>
-      <c r="C15" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="32">
+      <c r="C15" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="35" t="inlineStr">
+      <c r="E15" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F15" s="32" t="n"/>
-      <c r="G15" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H15" s="32" t="n"/>
-      <c r="I15" s="32" t="n"/>
-      <c r="J15" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K15" s="32" t="n"/>
+      <c r="F15" s="33" t="n"/>
+      <c r="G15" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H15" s="33" t="n"/>
+      <c r="I15" s="33" t="n"/>
+      <c r="J15" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K15" s="33" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="32" t="inlineStr">
+      <c r="A16" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B16" s="32" t="inlineStr">
+      <c r="B16" s="33" t="inlineStr">
         <is>
           <t>Marilena</t>
         </is>
       </c>
-      <c r="C16" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="32">
+      <c r="C16" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="35" t="inlineStr">
+      <c r="E16" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F16" s="32" t="n"/>
-      <c r="G16" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H16" s="32" t="n"/>
-      <c r="I16" s="32" t="n"/>
-      <c r="J16" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K16" s="32" t="n"/>
+      <c r="F16" s="33" t="n"/>
+      <c r="G16" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H16" s="33" t="n"/>
+      <c r="I16" s="33" t="n"/>
+      <c r="J16" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K16" s="33" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="32" t="inlineStr">
+      <c r="A17" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B17" s="32" t="inlineStr">
+      <c r="B17" s="33" t="inlineStr">
         <is>
           <t>Mariluz</t>
         </is>
       </c>
-      <c r="C17" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="32">
+      <c r="C17" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="33" t="inlineStr">
+      <c r="E17" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F17" s="32" t="inlineStr">
+      <c r="F17" s="33" t="inlineStr">
         <is>
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="G17" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H17" s="32" t="n"/>
-      <c r="I17" s="32" t="n"/>
-      <c r="J17" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K17" s="32" t="n"/>
+      <c r="G17" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H17" s="33" t="n"/>
+      <c r="I17" s="33" t="n"/>
+      <c r="J17" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K17" s="33" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="32" t="inlineStr">
+      <c r="A18" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B18" s="32" t="inlineStr">
+      <c r="B18" s="33" t="inlineStr">
         <is>
           <t>Nova Londrina</t>
         </is>
       </c>
-      <c r="C18" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="32">
+      <c r="C18" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="35" t="inlineStr">
+      <c r="E18" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F18" s="32" t="n"/>
-      <c r="G18" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H18" s="32" t="n"/>
-      <c r="I18" s="32" t="n"/>
-      <c r="J18" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K18" s="32" t="n"/>
+      <c r="F18" s="33" t="n"/>
+      <c r="G18" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H18" s="33" t="n"/>
+      <c r="I18" s="33" t="n"/>
+      <c r="J18" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K18" s="33" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="32" t="inlineStr">
@@ -8191,421 +8264,425 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B19" s="32" t="inlineStr">
+      <c r="B19" s="33" t="inlineStr">
         <is>
           <t>Nova Olimpia</t>
         </is>
       </c>
-      <c r="C19" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="32">
+      <c r="C19" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="33" t="inlineStr">
+      <c r="E19" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F19" s="32" t="inlineStr">
+      <c r="F19" s="33" t="inlineStr">
         <is>
           <t>19/09/2025</t>
         </is>
       </c>
-      <c r="G19" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H19" s="32" t="n"/>
-      <c r="I19" s="32" t="n"/>
-      <c r="J19" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K19" s="32" t="n"/>
+      <c r="G19" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H19" s="33" t="n"/>
+      <c r="I19" s="33" t="n"/>
+      <c r="J19" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K19" s="33" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="32" t="inlineStr">
+      <c r="A20" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B20" s="32" t="inlineStr">
+      <c r="B20" s="33" t="inlineStr">
         <is>
           <t>Perobal</t>
         </is>
       </c>
-      <c r="C20" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="32">
+      <c r="C20" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="35" t="inlineStr">
+      <c r="E20" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F20" s="32" t="n"/>
-      <c r="G20" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H20" s="32" t="n"/>
-      <c r="I20" s="32" t="n"/>
-      <c r="J20" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K20" s="32" t="n"/>
+      <c r="F20" s="33" t="n"/>
+      <c r="G20" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H20" s="33" t="n"/>
+      <c r="I20" s="33" t="n"/>
+      <c r="J20" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K20" s="33" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="32" t="inlineStr">
+      <c r="A21" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B21" s="32" t="inlineStr">
+      <c r="B21" s="33" t="inlineStr">
         <is>
           <t>Pérola</t>
         </is>
       </c>
-      <c r="C21" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="32">
+      <c r="C21" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="35" t="inlineStr">
+      <c r="E21" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F21" s="32" t="n"/>
-      <c r="G21" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H21" s="32" t="n"/>
-      <c r="I21" s="32" t="n"/>
-      <c r="J21" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K21" s="32" t="n"/>
+      <c r="F21" s="33" t="n"/>
+      <c r="G21" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H21" s="33" t="n"/>
+      <c r="I21" s="33" t="n"/>
+      <c r="J21" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K21" s="33" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="32" t="inlineStr">
+      <c r="A22" s="38" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
       </c>
-      <c r="B22" s="32" t="inlineStr">
+      <c r="B22" s="33" t="inlineStr">
         <is>
           <t>Perola d'Oeste</t>
         </is>
       </c>
-      <c r="C22" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="32">
+      <c r="C22" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="36" t="inlineStr">
+      <c r="E22" s="39" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
-      <c r="F22" s="32" t="n"/>
-      <c r="G22" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H22" s="32" t="n"/>
-      <c r="I22" s="32" t="n"/>
-      <c r="J22" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K22" s="32" t="n"/>
+      <c r="F22" s="33" t="n"/>
+      <c r="G22" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H22" s="33" t="n"/>
+      <c r="I22" s="33" t="n"/>
+      <c r="J22" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K22" s="33" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="32" t="inlineStr">
+      <c r="A23" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B23" s="32" t="inlineStr">
+      <c r="B23" s="33" t="inlineStr">
         <is>
           <t>Planaltina do Paraná</t>
         </is>
       </c>
-      <c r="C23" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="32">
+      <c r="C23" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="35" t="inlineStr">
+      <c r="E23" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F23" s="32" t="n"/>
-      <c r="G23" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H23" s="32" t="n"/>
-      <c r="I23" s="32" t="n"/>
-      <c r="J23" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K23" s="32" t="n"/>
+      <c r="F23" s="33" t="n"/>
+      <c r="G23" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H23" s="33" t="n"/>
+      <c r="I23" s="33" t="n"/>
+      <c r="J23" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K23" s="33" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="32" t="inlineStr">
+      <c r="A24" s="38" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
       </c>
-      <c r="B24" s="32" t="inlineStr">
+      <c r="B24" s="33" t="inlineStr">
         <is>
           <t>Planalto</t>
         </is>
       </c>
-      <c r="C24" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="32">
+      <c r="C24" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="36" t="inlineStr">
+      <c r="E24" s="39" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
-      <c r="F24" s="32" t="n"/>
-      <c r="G24" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H24" s="32" t="n"/>
-      <c r="I24" s="32" t="n"/>
-      <c r="J24" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K24" s="32" t="n"/>
+      <c r="F24" s="33" t="n"/>
+      <c r="G24" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H24" s="33" t="n"/>
+      <c r="I24" s="33" t="n"/>
+      <c r="J24" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K24" s="33" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="32" t="inlineStr">
+      <c r="A25" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B25" s="32" t="inlineStr">
+      <c r="B25" s="33" t="inlineStr">
         <is>
           <t>Porto Rico</t>
         </is>
       </c>
-      <c r="C25" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="32">
+      <c r="C25" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="35" t="inlineStr">
+      <c r="E25" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F25" s="32" t="n"/>
-      <c r="G25" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H25" s="32" t="n"/>
-      <c r="I25" s="32" t="n"/>
-      <c r="J25" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K25" s="32" t="n"/>
+      <c r="F25" s="33" t="n"/>
+      <c r="G25" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H25" s="33" t="n"/>
+      <c r="I25" s="33" t="n"/>
+      <c r="J25" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K25" s="33" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="32" t="inlineStr">
+      <c r="A26" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B26" s="32" t="inlineStr">
+      <c r="B26" s="33" t="inlineStr">
         <is>
           <t>Querencia do Norte</t>
         </is>
       </c>
-      <c r="C26" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="32">
+      <c r="C26" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="35" t="inlineStr">
+      <c r="E26" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F26" s="32" t="n"/>
-      <c r="G26" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H26" s="32" t="n"/>
-      <c r="I26" s="32" t="n"/>
-      <c r="J26" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K26" s="32" t="n"/>
+      <c r="F26" s="33" t="n"/>
+      <c r="G26" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H26" s="33" t="n"/>
+      <c r="I26" s="33" t="n"/>
+      <c r="J26" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K26" s="33" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="32" t="inlineStr">
+      <c r="A27" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B27" s="32" t="inlineStr">
+      <c r="B27" s="33" t="inlineStr">
         <is>
           <t>Santa Cruz do Monte Castelo</t>
         </is>
       </c>
-      <c r="C27" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="32">
+      <c r="C27" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="35" t="inlineStr">
+      <c r="E27" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F27" s="32" t="n"/>
-      <c r="G27" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H27" s="32" t="n"/>
-      <c r="I27" s="32" t="n"/>
-      <c r="J27" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K27" s="32" t="n"/>
+      <c r="F27" s="33" t="n"/>
+      <c r="G27" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H27" s="33" t="n"/>
+      <c r="I27" s="33" t="n"/>
+      <c r="J27" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K27" s="33" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="32" t="inlineStr">
+      <c r="A28" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B28" s="32" t="inlineStr">
+      <c r="B28" s="33" t="inlineStr">
         <is>
           <t>Santa Isabel do Ivai</t>
         </is>
       </c>
-      <c r="C28" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="32">
+      <c r="C28" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="35" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F28" s="32" t="n"/>
-      <c r="G28" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H28" s="32" t="n"/>
-      <c r="I28" s="32" t="n"/>
-      <c r="J28" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K28" s="32" t="n"/>
+      <c r="E28" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F28" s="33" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="G28" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H28" s="33" t="n"/>
+      <c r="I28" s="33" t="n"/>
+      <c r="J28" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K28" s="33" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="32" t="inlineStr">
+      <c r="A29" s="38" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
       </c>
-      <c r="B29" s="32" t="inlineStr">
+      <c r="B29" s="33" t="inlineStr">
         <is>
           <t>Santo Antonio do Sudoeste</t>
         </is>
       </c>
-      <c r="C29" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="32">
+      <c r="C29" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="36" t="inlineStr">
+      <c r="E29" s="39" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
-      <c r="F29" s="32" t="n"/>
-      <c r="G29" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H29" s="32" t="n"/>
-      <c r="I29" s="32" t="n"/>
-      <c r="J29" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K29" s="32" t="n"/>
+      <c r="F29" s="33" t="n"/>
+      <c r="G29" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H29" s="33" t="n"/>
+      <c r="I29" s="33" t="n"/>
+      <c r="J29" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K29" s="33" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="32" t="inlineStr">
@@ -8613,75 +8690,75 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B30" s="32" t="inlineStr">
+      <c r="B30" s="33" t="inlineStr">
         <is>
           <t>São Jorge do Patrocinio</t>
         </is>
       </c>
-      <c r="C30" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="32">
+      <c r="C30" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="35" t="inlineStr">
+      <c r="E30" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F30" s="32" t="n"/>
-      <c r="G30" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H30" s="32" t="n"/>
-      <c r="I30" s="32" t="n"/>
-      <c r="J30" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K30" s="32" t="n"/>
+      <c r="F30" s="33" t="n"/>
+      <c r="G30" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H30" s="33" t="n"/>
+      <c r="I30" s="33" t="n"/>
+      <c r="J30" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K30" s="33" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="32" t="inlineStr">
+      <c r="A31" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B31" s="32" t="inlineStr">
+      <c r="B31" s="33" t="inlineStr">
         <is>
           <t>São Pedro do Paraná</t>
         </is>
       </c>
-      <c r="C31" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="32">
+      <c r="C31" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="35" t="inlineStr">
+      <c r="E31" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F31" s="32" t="n"/>
-      <c r="G31" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H31" s="32" t="n"/>
-      <c r="I31" s="32" t="n"/>
-      <c r="J31" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K31" s="32" t="n"/>
+      <c r="F31" s="33" t="n"/>
+      <c r="G31" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H31" s="33" t="n"/>
+      <c r="I31" s="33" t="n"/>
+      <c r="J31" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K31" s="33" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="32" t="inlineStr">
@@ -8689,635 +8766,639 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B32" s="32" t="inlineStr">
+      <c r="B32" s="33" t="inlineStr">
         <is>
           <t>Tapira</t>
         </is>
       </c>
-      <c r="C32" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="32">
+      <c r="C32" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="35" t="inlineStr">
+      <c r="E32" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F32" s="32" t="n"/>
-      <c r="G32" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H32" s="32" t="n"/>
-      <c r="I32" s="32" t="n"/>
-      <c r="J32" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K32" s="32" t="n"/>
+      <c r="F32" s="33" t="n"/>
+      <c r="G32" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H32" s="33" t="n"/>
+      <c r="I32" s="33" t="n"/>
+      <c r="J32" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K32" s="33" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="32" t="inlineStr">
+      <c r="A33" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B33" s="32" t="inlineStr">
+      <c r="B33" s="33" t="inlineStr">
         <is>
           <t>Umuarama</t>
         </is>
       </c>
-      <c r="C33" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="32">
+      <c r="C33" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="33" t="inlineStr">
+      <c r="E33" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F33" s="32" t="inlineStr">
+      <c r="F33" s="33" t="inlineStr">
         <is>
           <t>24/09/2025</t>
         </is>
       </c>
-      <c r="G33" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H33" s="32" t="n"/>
-      <c r="I33" s="32" t="n"/>
-      <c r="J33" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K33" s="32" t="n"/>
+      <c r="G33" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H33" s="33" t="n"/>
+      <c r="I33" s="33" t="n"/>
+      <c r="J33" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K33" s="33" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="32" t="inlineStr">
+      <c r="A34" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B34" s="32" t="inlineStr">
+      <c r="B34" s="33" t="inlineStr">
         <is>
           <t>Xambre</t>
         </is>
       </c>
-      <c r="C34" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="32">
+      <c r="C34" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="33" t="inlineStr">
+      <c r="E34" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F34" s="32" t="inlineStr">
+      <c r="F34" s="33" t="inlineStr">
         <is>
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="G34" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H34" s="32" t="n"/>
-      <c r="I34" s="32" t="n"/>
-      <c r="J34" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K34" s="32" t="n"/>
+      <c r="G34" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H34" s="33" t="n"/>
+      <c r="I34" s="33" t="n"/>
+      <c r="J34" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K34" s="33" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="32" t="inlineStr">
+      <c r="A35" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B35" s="32" t="inlineStr">
+      <c r="B35" s="33" t="inlineStr">
         <is>
           <t>Amambai</t>
         </is>
       </c>
-      <c r="C35" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="32">
+      <c r="C35" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="35" t="inlineStr">
+      <c r="E35" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F35" s="33" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="G35" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H35" s="33" t="n"/>
+      <c r="I35" s="33" t="n"/>
+      <c r="J35" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K35" s="33" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="42" t="inlineStr">
+        <is>
+          <t>Conisul</t>
+        </is>
+      </c>
+      <c r="B36" s="33" t="inlineStr">
+        <is>
+          <t>Aral Moreira</t>
+        </is>
+      </c>
+      <c r="C36" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="33">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
+      <c r="E36" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F35" s="32" t="n"/>
-      <c r="G35" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H35" s="32" t="n"/>
-      <c r="I35" s="32" t="n"/>
-      <c r="J35" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K35" s="32" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="32" t="inlineStr">
+      <c r="F36" s="33" t="n"/>
+      <c r="G36" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H36" s="33" t="n"/>
+      <c r="I36" s="33" t="n"/>
+      <c r="J36" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K36" s="33" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B36" s="32" t="inlineStr">
-        <is>
-          <t>Aral Moreira</t>
-        </is>
-      </c>
-      <c r="C36" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="32">
-        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
-      </c>
-      <c r="E36" s="35" t="inlineStr">
+      <c r="B37" s="33" t="inlineStr">
+        <is>
+          <t>Caarapó</t>
+        </is>
+      </c>
+      <c r="C37" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="33">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
+      <c r="E37" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F36" s="32" t="n"/>
-      <c r="G36" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H36" s="32" t="n"/>
-      <c r="I36" s="32" t="n"/>
-      <c r="J36" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K36" s="32" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="32" t="inlineStr">
+      <c r="F37" s="33" t="n"/>
+      <c r="G37" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H37" s="33" t="n"/>
+      <c r="I37" s="33" t="n"/>
+      <c r="J37" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K37" s="33" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B37" s="32" t="inlineStr">
-        <is>
-          <t>Caarapó</t>
-        </is>
-      </c>
-      <c r="C37" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="32">
-        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
-      </c>
-      <c r="E37" s="35" t="inlineStr">
+      <c r="B38" s="33" t="inlineStr">
+        <is>
+          <t>Coronel Sapucaia</t>
+        </is>
+      </c>
+      <c r="C38" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="33">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
+      <c r="E38" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F37" s="32" t="n"/>
-      <c r="G37" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H37" s="32" t="n"/>
-      <c r="I37" s="32" t="n"/>
-      <c r="J37" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K37" s="32" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="32" t="inlineStr">
+      <c r="F38" s="33" t="n"/>
+      <c r="G38" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H38" s="33" t="n"/>
+      <c r="I38" s="33" t="n"/>
+      <c r="J38" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K38" s="33" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B38" s="32" t="inlineStr">
-        <is>
-          <t>Coronel Sapucaia</t>
-        </is>
-      </c>
-      <c r="C38" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="32">
-        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
-      </c>
-      <c r="E38" s="35" t="inlineStr">
+      <c r="B39" s="33" t="inlineStr">
+        <is>
+          <t>Eldorado</t>
+        </is>
+      </c>
+      <c r="C39" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="33">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
+      <c r="E39" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F39" s="33" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="G39" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H39" s="33" t="n"/>
+      <c r="I39" s="33" t="n"/>
+      <c r="J39" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K39" s="33" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="42" t="inlineStr">
+        <is>
+          <t>Conisul</t>
+        </is>
+      </c>
+      <c r="B40" s="33" t="inlineStr">
+        <is>
+          <t>Iguatemi</t>
+        </is>
+      </c>
+      <c r="C40" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="33">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
+      <c r="E40" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F38" s="32" t="n"/>
-      <c r="G38" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H38" s="32" t="n"/>
-      <c r="I38" s="32" t="n"/>
-      <c r="J38" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K38" s="32" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="32" t="inlineStr">
+      <c r="F40" s="33" t="n"/>
+      <c r="G40" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H40" s="33" t="n"/>
+      <c r="I40" s="33" t="n"/>
+      <c r="J40" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K40" s="33" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B39" s="32" t="inlineStr">
-        <is>
-          <t>Eldorado</t>
-        </is>
-      </c>
-      <c r="C39" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="32">
-        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
-      </c>
-      <c r="E39" s="33" t="inlineStr">
+      <c r="B41" s="33" t="inlineStr">
+        <is>
+          <t>Itaquiraí</t>
+        </is>
+      </c>
+      <c r="C41" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="33">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
+      <c r="E41" s="37" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F41" s="33" t="n"/>
+      <c r="G41" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H41" s="33" t="n"/>
+      <c r="I41" s="33" t="n"/>
+      <c r="J41" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K41" s="33" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="42" t="inlineStr">
+        <is>
+          <t>Conisul</t>
+        </is>
+      </c>
+      <c r="B42" s="33" t="inlineStr">
+        <is>
+          <t>Japorã</t>
+        </is>
+      </c>
+      <c r="C42" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="33">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
+      <c r="E42" s="37" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F42" s="33" t="n"/>
+      <c r="G42" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H42" s="33" t="n"/>
+      <c r="I42" s="33" t="n"/>
+      <c r="J42" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K42" s="33" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="42" t="inlineStr">
+        <is>
+          <t>Conisul</t>
+        </is>
+      </c>
+      <c r="B43" s="33" t="inlineStr">
+        <is>
+          <t>Juti</t>
+        </is>
+      </c>
+      <c r="C43" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="33">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
+      <c r="E43" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F39" s="32" t="inlineStr">
-        <is>
-          <t>22/09/2025</t>
-        </is>
-      </c>
-      <c r="G39" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H39" s="32" t="n"/>
-      <c r="I39" s="32" t="n"/>
-      <c r="J39" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K39" s="32" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="32" t="inlineStr">
+      <c r="F43" s="33" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="G43" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H43" s="33" t="n"/>
+      <c r="I43" s="33" t="n"/>
+      <c r="J43" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K43" s="33" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B40" s="32" t="inlineStr">
-        <is>
-          <t>Iguatemi</t>
-        </is>
-      </c>
-      <c r="C40" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="32">
-        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
-      </c>
-      <c r="E40" s="35" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F40" s="32" t="n"/>
-      <c r="G40" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H40" s="32" t="n"/>
-      <c r="I40" s="32" t="n"/>
-      <c r="J40" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K40" s="32" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="32" t="inlineStr">
+      <c r="B44" s="33" t="inlineStr">
+        <is>
+          <t>Naviraí</t>
+        </is>
+      </c>
+      <c r="C44" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="33">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
+      <c r="E44" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F44" s="33" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="G44" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H44" s="33" t="n"/>
+      <c r="I44" s="33" t="n"/>
+      <c r="J44" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K44" s="33" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B41" s="32" t="inlineStr">
-        <is>
-          <t>Itaquiraí</t>
-        </is>
-      </c>
-      <c r="C41" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="32">
-        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
-      </c>
-      <c r="E41" s="35" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F41" s="32" t="n"/>
-      <c r="G41" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H41" s="32" t="n"/>
-      <c r="I41" s="32" t="n"/>
-      <c r="J41" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K41" s="32" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="32" t="inlineStr">
+      <c r="B45" s="33" t="inlineStr">
+        <is>
+          <t>Paranhos</t>
+        </is>
+      </c>
+      <c r="C45" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="33">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
+      <c r="E45" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F45" s="33" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="G45" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H45" s="33" t="n"/>
+      <c r="I45" s="33" t="n"/>
+      <c r="J45" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K45" s="33" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B42" s="32" t="inlineStr">
-        <is>
-          <t>Japorã</t>
-        </is>
-      </c>
-      <c r="C42" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="32">
-        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
-      </c>
-      <c r="E42" s="35" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F42" s="32" t="n"/>
-      <c r="G42" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H42" s="32" t="n"/>
-      <c r="I42" s="32" t="n"/>
-      <c r="J42" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K42" s="32" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="32" t="inlineStr">
+      <c r="B46" s="33" t="inlineStr">
+        <is>
+          <t>Sete Quedas</t>
+        </is>
+      </c>
+      <c r="C46" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="33">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
+      <c r="E46" s="39" t="inlineStr">
+        <is>
+          <t>Sem Técnico</t>
+        </is>
+      </c>
+      <c r="F46" s="33" t="n"/>
+      <c r="G46" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H46" s="33" t="n"/>
+      <c r="I46" s="33" t="n"/>
+      <c r="J46" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K46" s="33" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B43" s="32" t="inlineStr">
-        <is>
-          <t>Juti</t>
-        </is>
-      </c>
-      <c r="C43" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="32">
-        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
-      </c>
-      <c r="E43" s="33" t="inlineStr">
+      <c r="B47" s="33" t="inlineStr">
+        <is>
+          <t>Tacuru</t>
+        </is>
+      </c>
+      <c r="C47" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="33">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
+      <c r="E47" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F43" s="32" t="inlineStr">
-        <is>
-          <t>16/09/2025</t>
-        </is>
-      </c>
-      <c r="G43" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H43" s="32" t="n"/>
-      <c r="I43" s="32" t="n"/>
-      <c r="J43" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K43" s="32" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="32" t="inlineStr">
-        <is>
-          <t>Conisul</t>
-        </is>
-      </c>
-      <c r="B44" s="32" t="inlineStr">
-        <is>
-          <t>Naviraí</t>
-        </is>
-      </c>
-      <c r="C44" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="32">
-        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
-      </c>
-      <c r="E44" s="33" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F44" s="32" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="G44" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H44" s="32" t="n"/>
-      <c r="I44" s="32" t="n"/>
-      <c r="J44" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K44" s="32" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="32" t="inlineStr">
-        <is>
-          <t>Conisul</t>
-        </is>
-      </c>
-      <c r="B45" s="32" t="inlineStr">
-        <is>
-          <t>Paranhos</t>
-        </is>
-      </c>
-      <c r="C45" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="32">
-        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
-      </c>
-      <c r="E45" s="33" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F45" s="32" t="inlineStr">
-        <is>
-          <t>16/09/2025</t>
-        </is>
-      </c>
-      <c r="G45" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H45" s="32" t="n"/>
-      <c r="I45" s="32" t="n"/>
-      <c r="J45" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K45" s="32" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="32" t="inlineStr">
-        <is>
-          <t>Conisul</t>
-        </is>
-      </c>
-      <c r="B46" s="32" t="inlineStr">
-        <is>
-          <t>Sete Quedas</t>
-        </is>
-      </c>
-      <c r="C46" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="32">
-        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
-      </c>
-      <c r="E46" s="36" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F46" s="32" t="n"/>
-      <c r="G46" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H46" s="32" t="n"/>
-      <c r="I46" s="32" t="n"/>
-      <c r="J46" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K46" s="32" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="32" t="inlineStr">
-        <is>
-          <t>Conisul</t>
-        </is>
-      </c>
-      <c r="B47" s="32" t="inlineStr">
-        <is>
-          <t>Tacuru</t>
-        </is>
-      </c>
-      <c r="C47" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="32">
-        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
-      </c>
-      <c r="E47" s="33" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F47" s="32" t="inlineStr">
+      <c r="F47" s="33" t="inlineStr">
         <is>
           <t>11/09/2025</t>
         </is>
       </c>
-      <c r="G47" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H47" s="32" t="n"/>
-      <c r="I47" s="32" t="n"/>
-      <c r="J47" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K47" s="32" t="n"/>
+      <c r="G47" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H47" s="33" t="n"/>
+      <c r="I47" s="33" t="n"/>
+      <c r="J47" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K47" s="33" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -9463,231 +9544,231 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B2" s="32" t="inlineStr">
+      <c r="B2" s="33" t="inlineStr">
         <is>
           <t>Alto Paraíso</t>
         </is>
       </c>
-      <c r="C2" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32">
+      <c r="C2" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="35" t="inlineStr">
+      <c r="E2" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F2" s="32" t="n"/>
-      <c r="G2" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H2" s="32" t="n"/>
-      <c r="I2" s="32" t="n"/>
-      <c r="J2" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="32" t="n"/>
+      <c r="F2" s="33" t="n"/>
+      <c r="G2" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H2" s="33" t="n"/>
+      <c r="I2" s="33" t="n"/>
+      <c r="J2" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="33" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="inlineStr">
+      <c r="A3" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B3" s="32" t="inlineStr">
+      <c r="B3" s="33" t="inlineStr">
         <is>
           <t>Alto Piquiri</t>
         </is>
       </c>
-      <c r="C3" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="32">
+      <c r="C3" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="35" t="inlineStr">
+      <c r="E3" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F3" s="32" t="n"/>
-      <c r="G3" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="32" t="n"/>
-      <c r="I3" s="32" t="n"/>
-      <c r="J3" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K3" s="32" t="n"/>
+      <c r="F3" s="33" t="n"/>
+      <c r="G3" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="33" t="n"/>
+      <c r="I3" s="33" t="n"/>
+      <c r="J3" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="33" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="32" t="inlineStr">
+      <c r="A4" s="38" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
       </c>
-      <c r="B4" s="32" t="inlineStr">
+      <c r="B4" s="33" t="inlineStr">
         <is>
           <t>Bela Vista da Caroba</t>
         </is>
       </c>
-      <c r="C4" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="32">
+      <c r="C4" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="36" t="inlineStr">
+      <c r="E4" s="39" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
-      <c r="F4" s="32" t="n"/>
-      <c r="G4" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="32" t="n"/>
-      <c r="I4" s="32" t="n"/>
-      <c r="J4" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="32" t="n"/>
+      <c r="F4" s="33" t="n"/>
+      <c r="G4" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H4" s="33" t="n"/>
+      <c r="I4" s="33" t="n"/>
+      <c r="J4" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="33" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="32" t="inlineStr">
+      <c r="A5" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B5" s="32" t="inlineStr">
+      <c r="B5" s="33" t="inlineStr">
         <is>
           <t>Cafezal do Sul</t>
         </is>
       </c>
-      <c r="C5" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="32">
+      <c r="C5" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="37" t="inlineStr">
+      <c r="E5" s="41" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
       </c>
-      <c r="F5" s="32" t="inlineStr">
+      <c r="F5" s="33" t="inlineStr">
         <is>
           <t>18/09/2025, 18/09/2025</t>
         </is>
       </c>
-      <c r="G5" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H5" s="32" t="n"/>
-      <c r="I5" s="32" t="n"/>
-      <c r="J5" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K5" s="32" t="n"/>
+      <c r="G5" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H5" s="33" t="n"/>
+      <c r="I5" s="33" t="n"/>
+      <c r="J5" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" s="33" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="32" t="inlineStr">
+      <c r="A6" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B6" s="32" t="inlineStr">
+      <c r="B6" s="33" t="inlineStr">
         <is>
           <t>Cruzeiro do Oeste</t>
         </is>
       </c>
-      <c r="C6" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="32">
+      <c r="C6" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="35" t="inlineStr">
+      <c r="E6" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F6" s="32" t="n"/>
-      <c r="G6" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H6" s="32" t="n"/>
-      <c r="I6" s="32" t="n"/>
-      <c r="J6" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K6" s="32" t="n"/>
+      <c r="F6" s="33" t="n"/>
+      <c r="G6" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H6" s="33" t="n"/>
+      <c r="I6" s="33" t="n"/>
+      <c r="J6" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K6" s="33" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="32" t="inlineStr">
+      <c r="A7" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B7" s="32" t="inlineStr">
+      <c r="B7" s="33" t="inlineStr">
         <is>
           <t>Diamante do Norte</t>
         </is>
       </c>
-      <c r="C7" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="32">
+      <c r="C7" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="35" t="inlineStr">
+      <c r="E7" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F7" s="32" t="n"/>
-      <c r="G7" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H7" s="32" t="n"/>
-      <c r="I7" s="32" t="n"/>
-      <c r="J7" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K7" s="32" t="n"/>
+      <c r="F7" s="33" t="n"/>
+      <c r="G7" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H7" s="33" t="n"/>
+      <c r="I7" s="33" t="n"/>
+      <c r="J7" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K7" s="33" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="32" t="inlineStr">
@@ -9695,41 +9776,41 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B8" s="32" t="inlineStr">
+      <c r="B8" s="33" t="inlineStr">
         <is>
           <t>Douradina</t>
         </is>
       </c>
-      <c r="C8" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="32">
+      <c r="C8" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="33" t="inlineStr">
+      <c r="E8" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F8" s="32" t="inlineStr">
+      <c r="F8" s="33" t="inlineStr">
         <is>
           <t>23/09/2025</t>
         </is>
       </c>
-      <c r="G8" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H8" s="32" t="n"/>
-      <c r="I8" s="32" t="n"/>
-      <c r="J8" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K8" s="32" t="n"/>
+      <c r="G8" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H8" s="33" t="n"/>
+      <c r="I8" s="33" t="n"/>
+      <c r="J8" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K8" s="33" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="32" t="inlineStr">
@@ -9737,37 +9818,37 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B9" s="32" t="inlineStr">
+      <c r="B9" s="33" t="inlineStr">
         <is>
           <t>Esperança Nova</t>
         </is>
       </c>
-      <c r="C9" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="32">
+      <c r="C9" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="35" t="inlineStr">
+      <c r="E9" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F9" s="32" t="n"/>
-      <c r="G9" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H9" s="32" t="n"/>
-      <c r="I9" s="32" t="n"/>
-      <c r="J9" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K9" s="32" t="n"/>
+      <c r="F9" s="33" t="n"/>
+      <c r="G9" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H9" s="33" t="n"/>
+      <c r="I9" s="33" t="n"/>
+      <c r="J9" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K9" s="33" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="32" t="inlineStr">
@@ -9775,193 +9856,197 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B10" s="32" t="inlineStr">
+      <c r="B10" s="33" t="inlineStr">
         <is>
           <t>Icaraíma</t>
         </is>
       </c>
-      <c r="C10" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="32">
+      <c r="C10" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="35" t="inlineStr">
+      <c r="E10" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F10" s="32" t="n"/>
-      <c r="G10" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H10" s="32" t="n"/>
-      <c r="I10" s="32" t="n"/>
-      <c r="J10" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K10" s="32" t="n"/>
+      <c r="F10" s="33" t="n"/>
+      <c r="G10" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H10" s="33" t="n"/>
+      <c r="I10" s="33" t="n"/>
+      <c r="J10" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K10" s="33" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="32" t="inlineStr">
+      <c r="A11" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B11" s="32" t="inlineStr">
+      <c r="B11" s="33" t="inlineStr">
         <is>
           <t>Iporã</t>
         </is>
       </c>
-      <c r="C11" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="32">
+      <c r="C11" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="33" t="inlineStr">
+      <c r="E11" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F11" s="32" t="inlineStr">
+      <c r="F11" s="33" t="inlineStr">
         <is>
           <t>23/09/2025</t>
         </is>
       </c>
-      <c r="G11" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H11" s="32" t="n"/>
-      <c r="I11" s="32" t="n"/>
-      <c r="J11" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K11" s="32" t="n"/>
+      <c r="G11" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H11" s="33" t="n"/>
+      <c r="I11" s="33" t="n"/>
+      <c r="J11" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K11" s="33" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="32" t="inlineStr">
+      <c r="A12" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B12" s="32" t="inlineStr">
+      <c r="B12" s="33" t="inlineStr">
         <is>
           <t>Ivaté</t>
         </is>
       </c>
-      <c r="C12" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="32">
+      <c r="C12" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="35" t="inlineStr">
+      <c r="E12" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F12" s="33" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="G12" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H12" s="33" t="n"/>
+      <c r="I12" s="33" t="n"/>
+      <c r="J12" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K12" s="33" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="40" t="inlineStr">
+        <is>
+          <t>Comafen</t>
+        </is>
+      </c>
+      <c r="B13" s="33" t="inlineStr">
+        <is>
+          <t>Itauna do Sul</t>
+        </is>
+      </c>
+      <c r="C13" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
+      <c r="E13" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F12" s="32" t="n"/>
-      <c r="G12" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H12" s="32" t="n"/>
-      <c r="I12" s="32" t="n"/>
-      <c r="J12" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K12" s="32" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="32" t="inlineStr">
+      <c r="F13" s="33" t="n"/>
+      <c r="G13" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H13" s="33" t="n"/>
+      <c r="I13" s="33" t="n"/>
+      <c r="J13" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K13" s="33" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B13" s="32" t="inlineStr">
-        <is>
-          <t>Itauna do Sul</t>
-        </is>
-      </c>
-      <c r="C13" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="32">
-        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
-      </c>
-      <c r="E13" s="35" t="inlineStr">
+      <c r="B14" s="33" t="inlineStr">
+        <is>
+          <t>Loanda</t>
+        </is>
+      </c>
+      <c r="C14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="33">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
+      <c r="E14" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F13" s="32" t="n"/>
-      <c r="G13" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H13" s="32" t="n"/>
-      <c r="I13" s="32" t="n"/>
-      <c r="J13" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K13" s="32" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="32" t="inlineStr">
-        <is>
-          <t>Comafen</t>
-        </is>
-      </c>
-      <c r="B14" s="32" t="inlineStr">
-        <is>
-          <t>Loanda</t>
-        </is>
-      </c>
-      <c r="C14" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="32">
-        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v/>
-      </c>
-      <c r="E14" s="35" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F14" s="32" t="n"/>
-      <c r="G14" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H14" s="32" t="n"/>
-      <c r="I14" s="32" t="n"/>
-      <c r="J14" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K14" s="32" t="n"/>
+      <c r="F14" s="33" t="n"/>
+      <c r="G14" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H14" s="33" t="n"/>
+      <c r="I14" s="33" t="n"/>
+      <c r="J14" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K14" s="33" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="32" t="inlineStr">
@@ -9969,155 +10054,155 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B15" s="32" t="inlineStr">
+      <c r="B15" s="33" t="inlineStr">
         <is>
           <t>Maria Helena</t>
         </is>
       </c>
-      <c r="C15" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="32">
+      <c r="C15" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="35" t="inlineStr">
+      <c r="E15" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F15" s="32" t="n"/>
-      <c r="G15" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H15" s="32" t="n"/>
-      <c r="I15" s="32" t="n"/>
-      <c r="J15" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K15" s="32" t="n"/>
+      <c r="F15" s="33" t="n"/>
+      <c r="G15" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H15" s="33" t="n"/>
+      <c r="I15" s="33" t="n"/>
+      <c r="J15" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K15" s="33" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="32" t="inlineStr">
+      <c r="A16" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B16" s="32" t="inlineStr">
+      <c r="B16" s="33" t="inlineStr">
         <is>
           <t>Marilena</t>
         </is>
       </c>
-      <c r="C16" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="32">
+      <c r="C16" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="35" t="inlineStr">
+      <c r="E16" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F16" s="32" t="n"/>
-      <c r="G16" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H16" s="32" t="n"/>
-      <c r="I16" s="32" t="n"/>
-      <c r="J16" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K16" s="32" t="n"/>
+      <c r="F16" s="33" t="n"/>
+      <c r="G16" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H16" s="33" t="n"/>
+      <c r="I16" s="33" t="n"/>
+      <c r="J16" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K16" s="33" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="32" t="inlineStr">
+      <c r="A17" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B17" s="32" t="inlineStr">
+      <c r="B17" s="33" t="inlineStr">
         <is>
           <t>Mariluz</t>
         </is>
       </c>
-      <c r="C17" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="32">
+      <c r="C17" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="33" t="inlineStr">
+      <c r="E17" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F17" s="32" t="inlineStr">
+      <c r="F17" s="33" t="inlineStr">
         <is>
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="G17" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H17" s="32" t="n"/>
-      <c r="I17" s="32" t="n"/>
-      <c r="J17" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K17" s="32" t="n"/>
+      <c r="G17" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H17" s="33" t="n"/>
+      <c r="I17" s="33" t="n"/>
+      <c r="J17" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K17" s="33" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="32" t="inlineStr">
+      <c r="A18" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B18" s="32" t="inlineStr">
+      <c r="B18" s="33" t="inlineStr">
         <is>
           <t>Nova Londrina</t>
         </is>
       </c>
-      <c r="C18" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="32">
+      <c r="C18" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="35" t="inlineStr">
+      <c r="E18" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F18" s="32" t="n"/>
-      <c r="G18" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H18" s="32" t="n"/>
-      <c r="I18" s="32" t="n"/>
-      <c r="J18" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K18" s="32" t="n"/>
+      <c r="F18" s="33" t="n"/>
+      <c r="G18" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H18" s="33" t="n"/>
+      <c r="I18" s="33" t="n"/>
+      <c r="J18" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K18" s="33" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="32" t="inlineStr">
@@ -10125,421 +10210,425 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B19" s="32" t="inlineStr">
+      <c r="B19" s="33" t="inlineStr">
         <is>
           <t>Nova Olimpia</t>
         </is>
       </c>
-      <c r="C19" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="32">
+      <c r="C19" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="33" t="inlineStr">
+      <c r="E19" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F19" s="32" t="inlineStr">
+      <c r="F19" s="33" t="inlineStr">
         <is>
           <t>19/09/2025</t>
         </is>
       </c>
-      <c r="G19" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H19" s="32" t="n"/>
-      <c r="I19" s="32" t="n"/>
-      <c r="J19" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K19" s="32" t="n"/>
+      <c r="G19" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H19" s="33" t="n"/>
+      <c r="I19" s="33" t="n"/>
+      <c r="J19" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K19" s="33" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="32" t="inlineStr">
+      <c r="A20" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B20" s="32" t="inlineStr">
+      <c r="B20" s="33" t="inlineStr">
         <is>
           <t>Perobal</t>
         </is>
       </c>
-      <c r="C20" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="32">
+      <c r="C20" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="35" t="inlineStr">
+      <c r="E20" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F20" s="32" t="n"/>
-      <c r="G20" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H20" s="32" t="n"/>
-      <c r="I20" s="32" t="n"/>
-      <c r="J20" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K20" s="32" t="n"/>
+      <c r="F20" s="33" t="n"/>
+      <c r="G20" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H20" s="33" t="n"/>
+      <c r="I20" s="33" t="n"/>
+      <c r="J20" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K20" s="33" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="32" t="inlineStr">
+      <c r="A21" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B21" s="32" t="inlineStr">
+      <c r="B21" s="33" t="inlineStr">
         <is>
           <t>Pérola</t>
         </is>
       </c>
-      <c r="C21" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="32">
+      <c r="C21" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="35" t="inlineStr">
+      <c r="E21" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F21" s="32" t="n"/>
-      <c r="G21" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H21" s="32" t="n"/>
-      <c r="I21" s="32" t="n"/>
-      <c r="J21" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K21" s="32" t="n"/>
+      <c r="F21" s="33" t="n"/>
+      <c r="G21" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H21" s="33" t="n"/>
+      <c r="I21" s="33" t="n"/>
+      <c r="J21" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K21" s="33" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="32" t="inlineStr">
+      <c r="A22" s="38" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
       </c>
-      <c r="B22" s="32" t="inlineStr">
+      <c r="B22" s="33" t="inlineStr">
         <is>
           <t>Perola d'Oeste</t>
         </is>
       </c>
-      <c r="C22" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="32">
+      <c r="C22" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="36" t="inlineStr">
+      <c r="E22" s="39" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
-      <c r="F22" s="32" t="n"/>
-      <c r="G22" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H22" s="32" t="n"/>
-      <c r="I22" s="32" t="n"/>
-      <c r="J22" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K22" s="32" t="n"/>
+      <c r="F22" s="33" t="n"/>
+      <c r="G22" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H22" s="33" t="n"/>
+      <c r="I22" s="33" t="n"/>
+      <c r="J22" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K22" s="33" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="32" t="inlineStr">
+      <c r="A23" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B23" s="32" t="inlineStr">
+      <c r="B23" s="33" t="inlineStr">
         <is>
           <t>Planaltina do Paraná</t>
         </is>
       </c>
-      <c r="C23" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="32">
+      <c r="C23" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="35" t="inlineStr">
+      <c r="E23" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F23" s="32" t="n"/>
-      <c r="G23" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H23" s="32" t="n"/>
-      <c r="I23" s="32" t="n"/>
-      <c r="J23" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K23" s="32" t="n"/>
+      <c r="F23" s="33" t="n"/>
+      <c r="G23" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H23" s="33" t="n"/>
+      <c r="I23" s="33" t="n"/>
+      <c r="J23" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K23" s="33" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="32" t="inlineStr">
+      <c r="A24" s="38" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
       </c>
-      <c r="B24" s="32" t="inlineStr">
+      <c r="B24" s="33" t="inlineStr">
         <is>
           <t>Planalto</t>
         </is>
       </c>
-      <c r="C24" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="32">
+      <c r="C24" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="36" t="inlineStr">
+      <c r="E24" s="39" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
-      <c r="F24" s="32" t="n"/>
-      <c r="G24" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H24" s="32" t="n"/>
-      <c r="I24" s="32" t="n"/>
-      <c r="J24" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K24" s="32" t="n"/>
+      <c r="F24" s="33" t="n"/>
+      <c r="G24" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H24" s="33" t="n"/>
+      <c r="I24" s="33" t="n"/>
+      <c r="J24" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K24" s="33" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="32" t="inlineStr">
+      <c r="A25" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B25" s="32" t="inlineStr">
+      <c r="B25" s="33" t="inlineStr">
         <is>
           <t>Porto Rico</t>
         </is>
       </c>
-      <c r="C25" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="32">
+      <c r="C25" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="35" t="inlineStr">
+      <c r="E25" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F25" s="32" t="n"/>
-      <c r="G25" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H25" s="32" t="n"/>
-      <c r="I25" s="32" t="n"/>
-      <c r="J25" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K25" s="32" t="n"/>
+      <c r="F25" s="33" t="n"/>
+      <c r="G25" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H25" s="33" t="n"/>
+      <c r="I25" s="33" t="n"/>
+      <c r="J25" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K25" s="33" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="32" t="inlineStr">
+      <c r="A26" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B26" s="32" t="inlineStr">
+      <c r="B26" s="33" t="inlineStr">
         <is>
           <t>Querencia do Norte</t>
         </is>
       </c>
-      <c r="C26" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="32">
+      <c r="C26" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="35" t="inlineStr">
+      <c r="E26" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F26" s="32" t="n"/>
-      <c r="G26" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H26" s="32" t="n"/>
-      <c r="I26" s="32" t="n"/>
-      <c r="J26" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K26" s="32" t="n"/>
+      <c r="F26" s="33" t="n"/>
+      <c r="G26" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H26" s="33" t="n"/>
+      <c r="I26" s="33" t="n"/>
+      <c r="J26" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K26" s="33" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="32" t="inlineStr">
+      <c r="A27" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B27" s="32" t="inlineStr">
+      <c r="B27" s="33" t="inlineStr">
         <is>
           <t>Santa Cruz do Monte Castelo</t>
         </is>
       </c>
-      <c r="C27" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="32">
+      <c r="C27" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="35" t="inlineStr">
+      <c r="E27" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F27" s="32" t="n"/>
-      <c r="G27" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H27" s="32" t="n"/>
-      <c r="I27" s="32" t="n"/>
-      <c r="J27" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K27" s="32" t="n"/>
+      <c r="F27" s="33" t="n"/>
+      <c r="G27" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H27" s="33" t="n"/>
+      <c r="I27" s="33" t="n"/>
+      <c r="J27" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K27" s="33" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="32" t="inlineStr">
+      <c r="A28" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B28" s="32" t="inlineStr">
+      <c r="B28" s="33" t="inlineStr">
         <is>
           <t>Santa Isabel do Ivai</t>
         </is>
       </c>
-      <c r="C28" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="32">
+      <c r="C28" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="35" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F28" s="32" t="n"/>
-      <c r="G28" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H28" s="32" t="n"/>
-      <c r="I28" s="32" t="n"/>
-      <c r="J28" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K28" s="32" t="n"/>
+      <c r="E28" s="34" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F28" s="33" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="G28" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H28" s="33" t="n"/>
+      <c r="I28" s="33" t="n"/>
+      <c r="J28" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K28" s="33" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="32" t="inlineStr">
+      <c r="A29" s="38" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
       </c>
-      <c r="B29" s="32" t="inlineStr">
+      <c r="B29" s="33" t="inlineStr">
         <is>
           <t>Santo Antonio do Sudoeste</t>
         </is>
       </c>
-      <c r="C29" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="32">
+      <c r="C29" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="36" t="inlineStr">
+      <c r="E29" s="39" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
-      <c r="F29" s="32" t="n"/>
-      <c r="G29" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H29" s="32" t="n"/>
-      <c r="I29" s="32" t="n"/>
-      <c r="J29" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K29" s="32" t="n"/>
+      <c r="F29" s="33" t="n"/>
+      <c r="G29" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H29" s="33" t="n"/>
+      <c r="I29" s="33" t="n"/>
+      <c r="J29" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K29" s="33" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="32" t="inlineStr">
@@ -10547,75 +10636,75 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B30" s="32" t="inlineStr">
+      <c r="B30" s="33" t="inlineStr">
         <is>
           <t>São Jorge do Patrocinio</t>
         </is>
       </c>
-      <c r="C30" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="32">
+      <c r="C30" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="35" t="inlineStr">
+      <c r="E30" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F30" s="32" t="n"/>
-      <c r="G30" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H30" s="32" t="n"/>
-      <c r="I30" s="32" t="n"/>
-      <c r="J30" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K30" s="32" t="n"/>
+      <c r="F30" s="33" t="n"/>
+      <c r="G30" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H30" s="33" t="n"/>
+      <c r="I30" s="33" t="n"/>
+      <c r="J30" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K30" s="33" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="32" t="inlineStr">
+      <c r="A31" s="40" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
       </c>
-      <c r="B31" s="32" t="inlineStr">
+      <c r="B31" s="33" t="inlineStr">
         <is>
           <t>São Pedro do Paraná</t>
         </is>
       </c>
-      <c r="C31" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="32">
+      <c r="C31" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="35" t="inlineStr">
+      <c r="E31" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F31" s="32" t="n"/>
-      <c r="G31" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H31" s="32" t="n"/>
-      <c r="I31" s="32" t="n"/>
-      <c r="J31" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K31" s="32" t="n"/>
+      <c r="F31" s="33" t="n"/>
+      <c r="G31" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H31" s="33" t="n"/>
+      <c r="I31" s="33" t="n"/>
+      <c r="J31" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K31" s="33" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="32" t="inlineStr">
@@ -10623,627 +10712,627 @@
           <t>Coripa</t>
         </is>
       </c>
-      <c r="B32" s="32" t="inlineStr">
+      <c r="B32" s="33" t="inlineStr">
         <is>
           <t>Tapira</t>
         </is>
       </c>
-      <c r="C32" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="32">
+      <c r="C32" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="35" t="inlineStr">
+      <c r="E32" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F32" s="32" t="n"/>
-      <c r="G32" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H32" s="32" t="n"/>
-      <c r="I32" s="32" t="n"/>
-      <c r="J32" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K32" s="32" t="n"/>
+      <c r="F32" s="33" t="n"/>
+      <c r="G32" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H32" s="33" t="n"/>
+      <c r="I32" s="33" t="n"/>
+      <c r="J32" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K32" s="33" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="32" t="inlineStr">
+      <c r="A33" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B33" s="32" t="inlineStr">
+      <c r="B33" s="33" t="inlineStr">
         <is>
           <t>Umuarama</t>
         </is>
       </c>
-      <c r="C33" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="32">
+      <c r="C33" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="33" t="inlineStr">
+      <c r="E33" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F33" s="32" t="inlineStr">
+      <c r="F33" s="33" t="inlineStr">
         <is>
           <t>24/09/2025</t>
         </is>
       </c>
-      <c r="G33" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H33" s="32" t="n"/>
-      <c r="I33" s="32" t="n"/>
-      <c r="J33" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K33" s="32" t="n"/>
+      <c r="G33" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H33" s="33" t="n"/>
+      <c r="I33" s="33" t="n"/>
+      <c r="J33" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K33" s="33" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="32" t="inlineStr">
+      <c r="A34" s="36" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
       </c>
-      <c r="B34" s="32" t="inlineStr">
+      <c r="B34" s="33" t="inlineStr">
         <is>
           <t>Xambre</t>
         </is>
       </c>
-      <c r="C34" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="32">
+      <c r="C34" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="33" t="inlineStr">
+      <c r="E34" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F34" s="32" t="inlineStr">
+      <c r="F34" s="33" t="inlineStr">
         <is>
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="G34" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H34" s="32" t="n"/>
-      <c r="I34" s="32" t="n"/>
-      <c r="J34" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K34" s="32" t="n"/>
+      <c r="G34" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H34" s="33" t="n"/>
+      <c r="I34" s="33" t="n"/>
+      <c r="J34" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K34" s="33" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="32" t="inlineStr">
+      <c r="A35" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B35" s="32" t="inlineStr">
+      <c r="B35" s="33" t="inlineStr">
         <is>
           <t>Amambai</t>
         </is>
       </c>
-      <c r="C35" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="32">
+      <c r="C35" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="35" t="inlineStr">
+      <c r="E35" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F35" s="32" t="n"/>
-      <c r="G35" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H35" s="32" t="n"/>
-      <c r="I35" s="32" t="n"/>
-      <c r="J35" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K35" s="32" t="n"/>
+      <c r="F35" s="33" t="n"/>
+      <c r="G35" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H35" s="33" t="n"/>
+      <c r="I35" s="33" t="n"/>
+      <c r="J35" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K35" s="33" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="32" t="inlineStr">
+      <c r="A36" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B36" s="32" t="inlineStr">
+      <c r="B36" s="33" t="inlineStr">
         <is>
           <t>Aral Moreira</t>
         </is>
       </c>
-      <c r="C36" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="32">
+      <c r="C36" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="35" t="inlineStr">
+      <c r="E36" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F36" s="32" t="n"/>
-      <c r="G36" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H36" s="32" t="n"/>
-      <c r="I36" s="32" t="n"/>
-      <c r="J36" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K36" s="32" t="n"/>
+      <c r="F36" s="33" t="n"/>
+      <c r="G36" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H36" s="33" t="n"/>
+      <c r="I36" s="33" t="n"/>
+      <c r="J36" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K36" s="33" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="32" t="inlineStr">
+      <c r="A37" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B37" s="32" t="inlineStr">
+      <c r="B37" s="33" t="inlineStr">
         <is>
           <t>Caarapó</t>
         </is>
       </c>
-      <c r="C37" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="32">
+      <c r="C37" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="35" t="inlineStr">
+      <c r="E37" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F37" s="32" t="n"/>
-      <c r="G37" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H37" s="32" t="n"/>
-      <c r="I37" s="32" t="n"/>
-      <c r="J37" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K37" s="32" t="n"/>
+      <c r="F37" s="33" t="n"/>
+      <c r="G37" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H37" s="33" t="n"/>
+      <c r="I37" s="33" t="n"/>
+      <c r="J37" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K37" s="33" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="32" t="inlineStr">
+      <c r="A38" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B38" s="32" t="inlineStr">
+      <c r="B38" s="33" t="inlineStr">
         <is>
           <t>Coronel Sapucaia</t>
         </is>
       </c>
-      <c r="C38" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="32">
+      <c r="C38" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="35" t="inlineStr">
+      <c r="E38" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F38" s="32" t="n"/>
-      <c r="G38" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H38" s="32" t="n"/>
-      <c r="I38" s="32" t="n"/>
-      <c r="J38" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K38" s="32" t="n"/>
+      <c r="F38" s="33" t="n"/>
+      <c r="G38" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H38" s="33" t="n"/>
+      <c r="I38" s="33" t="n"/>
+      <c r="J38" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K38" s="33" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="32" t="inlineStr">
+      <c r="A39" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B39" s="32" t="inlineStr">
+      <c r="B39" s="33" t="inlineStr">
         <is>
           <t>Eldorado</t>
         </is>
       </c>
-      <c r="C39" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="32">
+      <c r="C39" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="33" t="inlineStr">
+      <c r="E39" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F39" s="32" t="inlineStr">
+      <c r="F39" s="33" t="inlineStr">
         <is>
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="G39" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H39" s="32" t="n"/>
-      <c r="I39" s="32" t="n"/>
-      <c r="J39" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K39" s="32" t="n"/>
+      <c r="G39" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H39" s="33" t="n"/>
+      <c r="I39" s="33" t="n"/>
+      <c r="J39" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K39" s="33" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="32" t="inlineStr">
+      <c r="A40" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B40" s="32" t="inlineStr">
+      <c r="B40" s="33" t="inlineStr">
         <is>
           <t>Iguatemi</t>
         </is>
       </c>
-      <c r="C40" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="32">
+      <c r="C40" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="35" t="inlineStr">
+      <c r="E40" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F40" s="32" t="n"/>
-      <c r="G40" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H40" s="32" t="n"/>
-      <c r="I40" s="32" t="n"/>
-      <c r="J40" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K40" s="32" t="n"/>
+      <c r="F40" s="33" t="n"/>
+      <c r="G40" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H40" s="33" t="n"/>
+      <c r="I40" s="33" t="n"/>
+      <c r="J40" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K40" s="33" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="32" t="inlineStr">
+      <c r="A41" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B41" s="32" t="inlineStr">
+      <c r="B41" s="33" t="inlineStr">
         <is>
           <t>Itaquiraí</t>
         </is>
       </c>
-      <c r="C41" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="32">
+      <c r="C41" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="35" t="inlineStr">
+      <c r="E41" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F41" s="32" t="n"/>
-      <c r="G41" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H41" s="32" t="n"/>
-      <c r="I41" s="32" t="n"/>
-      <c r="J41" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K41" s="32" t="n"/>
+      <c r="F41" s="33" t="n"/>
+      <c r="G41" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H41" s="33" t="n"/>
+      <c r="I41" s="33" t="n"/>
+      <c r="J41" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K41" s="33" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="32" t="inlineStr">
+      <c r="A42" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B42" s="32" t="inlineStr">
+      <c r="B42" s="33" t="inlineStr">
         <is>
           <t>Japorã</t>
         </is>
       </c>
-      <c r="C42" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="32">
+      <c r="C42" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="35" t="inlineStr">
+      <c r="E42" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F42" s="32" t="n"/>
-      <c r="G42" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H42" s="32" t="n"/>
-      <c r="I42" s="32" t="n"/>
-      <c r="J42" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K42" s="32" t="n"/>
+      <c r="F42" s="33" t="n"/>
+      <c r="G42" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H42" s="33" t="n"/>
+      <c r="I42" s="33" t="n"/>
+      <c r="J42" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K42" s="33" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="32" t="inlineStr">
+      <c r="A43" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B43" s="32" t="inlineStr">
+      <c r="B43" s="33" t="inlineStr">
         <is>
           <t>Juti</t>
         </is>
       </c>
-      <c r="C43" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="32">
+      <c r="C43" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="35" t="inlineStr">
+      <c r="E43" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F43" s="32" t="n"/>
-      <c r="G43" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H43" s="32" t="n"/>
-      <c r="I43" s="32" t="n"/>
-      <c r="J43" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K43" s="32" t="n"/>
+      <c r="F43" s="33" t="n"/>
+      <c r="G43" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H43" s="33" t="n"/>
+      <c r="I43" s="33" t="n"/>
+      <c r="J43" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K43" s="33" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="32" t="inlineStr">
+      <c r="A44" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B44" s="32" t="inlineStr">
+      <c r="B44" s="33" t="inlineStr">
         <is>
           <t>Naviraí</t>
         </is>
       </c>
-      <c r="C44" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="32">
+      <c r="C44" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="33" t="inlineStr">
+      <c r="E44" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F44" s="32" t="inlineStr">
+      <c r="F44" s="33" t="inlineStr">
         <is>
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="G44" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H44" s="32" t="n"/>
-      <c r="I44" s="32" t="n"/>
-      <c r="J44" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K44" s="32" t="n"/>
+      <c r="G44" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H44" s="33" t="n"/>
+      <c r="I44" s="33" t="n"/>
+      <c r="J44" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K44" s="33" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="32" t="inlineStr">
+      <c r="A45" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B45" s="32" t="inlineStr">
+      <c r="B45" s="33" t="inlineStr">
         <is>
           <t>Paranhos</t>
         </is>
       </c>
-      <c r="C45" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="32">
+      <c r="C45" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="35" t="inlineStr">
+      <c r="E45" s="37" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F45" s="32" t="n"/>
-      <c r="G45" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H45" s="32" t="n"/>
-      <c r="I45" s="32" t="n"/>
-      <c r="J45" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K45" s="32" t="n"/>
+      <c r="F45" s="33" t="n"/>
+      <c r="G45" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H45" s="33" t="n"/>
+      <c r="I45" s="33" t="n"/>
+      <c r="J45" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K45" s="33" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="32" t="inlineStr">
+      <c r="A46" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B46" s="32" t="inlineStr">
+      <c r="B46" s="33" t="inlineStr">
         <is>
           <t>Sete Quedas</t>
         </is>
       </c>
-      <c r="C46" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="32">
+      <c r="C46" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="36" t="inlineStr">
+      <c r="E46" s="39" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
-      <c r="F46" s="32" t="n"/>
-      <c r="G46" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H46" s="32" t="n"/>
-      <c r="I46" s="32" t="n"/>
-      <c r="J46" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K46" s="32" t="n"/>
+      <c r="F46" s="33" t="n"/>
+      <c r="G46" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H46" s="33" t="n"/>
+      <c r="I46" s="33" t="n"/>
+      <c r="J46" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K46" s="33" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="32" t="inlineStr">
+      <c r="A47" s="42" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
       </c>
-      <c r="B47" s="32" t="inlineStr">
+      <c r="B47" s="33" t="inlineStr">
         <is>
           <t>Tacuru</t>
         </is>
       </c>
-      <c r="C47" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="32">
+      <c r="C47" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="33">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="33" t="inlineStr">
+      <c r="E47" s="34" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F47" s="32" t="inlineStr">
+      <c r="F47" s="33" t="inlineStr">
         <is>
           <t>11/09/2025</t>
         </is>
       </c>
-      <c r="G47" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H47" s="32" t="n"/>
-      <c r="I47" s="32" t="n"/>
-      <c r="J47" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K47" s="32" t="n"/>
+      <c r="G47" s="35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H47" s="33" t="n"/>
+      <c r="I47" s="33" t="n"/>
+      <c r="J47" s="33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K47" s="33" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>

--- a/outputs/expansao_ms_atualizado.xlsx
+++ b/outputs/expansao_ms_atualizado.xlsx
@@ -101,7 +101,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill/>
     </fill>
@@ -172,6 +172,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="00008000"/>
         <bgColor rgb="00008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+        <bgColor rgb="FF006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6666"/>
       </patternFill>
     </fill>
     <fill>
@@ -363,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -454,37 +466,55 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7593,7 +7623,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="32" t="inlineStr">
+      <c r="A2" s="43" t="inlineStr">
         <is>
           <t>Coripa</t>
         </is>
@@ -7616,7 +7646,7 @@
         </is>
       </c>
       <c r="F2" s="33" t="n"/>
-      <c r="G2" s="35" t="inlineStr">
+      <c r="G2" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7631,7 +7661,7 @@
       <c r="K2" s="33" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="36" t="inlineStr">
+      <c r="A3" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -7654,7 +7684,7 @@
         </is>
       </c>
       <c r="F3" s="33" t="n"/>
-      <c r="G3" s="35" t="inlineStr">
+      <c r="G3" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7669,7 +7699,7 @@
       <c r="K3" s="33" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="38" t="inlineStr">
+      <c r="A4" s="46" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
@@ -7692,7 +7722,7 @@
         </is>
       </c>
       <c r="F4" s="33" t="n"/>
-      <c r="G4" s="35" t="inlineStr">
+      <c r="G4" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7707,7 +7737,7 @@
       <c r="K4" s="33" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="36" t="inlineStr">
+      <c r="A5" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -7734,7 +7764,7 @@
           <t>17/09/2025</t>
         </is>
       </c>
-      <c r="G5" s="35" t="inlineStr">
+      <c r="G5" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7749,7 +7779,7 @@
       <c r="K5" s="33" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="36" t="inlineStr">
+      <c r="A6" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -7772,7 +7802,7 @@
         </is>
       </c>
       <c r="F6" s="33" t="n"/>
-      <c r="G6" s="35" t="inlineStr">
+      <c r="G6" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7787,7 +7817,7 @@
       <c r="K6" s="33" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="inlineStr">
+      <c r="A7" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -7810,7 +7840,7 @@
         </is>
       </c>
       <c r="F7" s="33" t="n"/>
-      <c r="G7" s="35" t="inlineStr">
+      <c r="G7" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7825,7 +7855,7 @@
       <c r="K7" s="33" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="32" t="inlineStr">
+      <c r="A8" s="43" t="inlineStr">
         <is>
           <t>Coripa</t>
         </is>
@@ -7852,7 +7882,7 @@
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="G8" s="35" t="inlineStr">
+      <c r="G8" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7867,7 +7897,7 @@
       <c r="K8" s="33" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="32" t="inlineStr">
+      <c r="A9" s="43" t="inlineStr">
         <is>
           <t>Coripa</t>
         </is>
@@ -7890,7 +7920,7 @@
         </is>
       </c>
       <c r="F9" s="33" t="n"/>
-      <c r="G9" s="35" t="inlineStr">
+      <c r="G9" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7905,7 +7935,7 @@
       <c r="K9" s="33" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="32" t="inlineStr">
+      <c r="A10" s="43" t="inlineStr">
         <is>
           <t>Coripa</t>
         </is>
@@ -7928,7 +7958,7 @@
         </is>
       </c>
       <c r="F10" s="33" t="n"/>
-      <c r="G10" s="35" t="inlineStr">
+      <c r="G10" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7943,7 +7973,7 @@
       <c r="K10" s="33" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="36" t="inlineStr">
+      <c r="A11" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -7970,7 +8000,7 @@
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="G11" s="35" t="inlineStr">
+      <c r="G11" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7985,7 +8015,7 @@
       <c r="K11" s="33" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="36" t="inlineStr">
+      <c r="A12" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -8012,7 +8042,7 @@
           <t>29/09/2025</t>
         </is>
       </c>
-      <c r="G12" s="35" t="inlineStr">
+      <c r="G12" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8027,7 +8057,7 @@
       <c r="K12" s="33" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="40" t="inlineStr">
+      <c r="A13" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -8050,7 +8080,7 @@
         </is>
       </c>
       <c r="F13" s="33" t="n"/>
-      <c r="G13" s="35" t="inlineStr">
+      <c r="G13" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8065,7 +8095,7 @@
       <c r="K13" s="33" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="40" t="inlineStr">
+      <c r="A14" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -8088,7 +8118,7 @@
         </is>
       </c>
       <c r="F14" s="33" t="n"/>
-      <c r="G14" s="35" t="inlineStr">
+      <c r="G14" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8103,7 +8133,7 @@
       <c r="K14" s="33" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="32" t="inlineStr">
+      <c r="A15" s="43" t="inlineStr">
         <is>
           <t>Coripa</t>
         </is>
@@ -8126,7 +8156,7 @@
         </is>
       </c>
       <c r="F15" s="33" t="n"/>
-      <c r="G15" s="35" t="inlineStr">
+      <c r="G15" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8141,7 +8171,7 @@
       <c r="K15" s="33" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="40" t="inlineStr">
+      <c r="A16" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -8164,7 +8194,7 @@
         </is>
       </c>
       <c r="F16" s="33" t="n"/>
-      <c r="G16" s="35" t="inlineStr">
+      <c r="G16" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8179,7 +8209,7 @@
       <c r="K16" s="33" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="36" t="inlineStr">
+      <c r="A17" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -8206,7 +8236,7 @@
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="G17" s="35" t="inlineStr">
+      <c r="G17" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8221,7 +8251,7 @@
       <c r="K17" s="33" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="40" t="inlineStr">
+      <c r="A18" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -8244,7 +8274,7 @@
         </is>
       </c>
       <c r="F18" s="33" t="n"/>
-      <c r="G18" s="35" t="inlineStr">
+      <c r="G18" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8259,7 +8289,7 @@
       <c r="K18" s="33" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="32" t="inlineStr">
+      <c r="A19" s="43" t="inlineStr">
         <is>
           <t>Coripa</t>
         </is>
@@ -8286,7 +8316,7 @@
           <t>19/09/2025</t>
         </is>
       </c>
-      <c r="G19" s="35" t="inlineStr">
+      <c r="G19" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8301,7 +8331,7 @@
       <c r="K19" s="33" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="36" t="inlineStr">
+      <c r="A20" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -8324,7 +8354,7 @@
         </is>
       </c>
       <c r="F20" s="33" t="n"/>
-      <c r="G20" s="35" t="inlineStr">
+      <c r="G20" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8339,7 +8369,7 @@
       <c r="K20" s="33" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="36" t="inlineStr">
+      <c r="A21" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -8362,7 +8392,7 @@
         </is>
       </c>
       <c r="F21" s="33" t="n"/>
-      <c r="G21" s="35" t="inlineStr">
+      <c r="G21" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8377,7 +8407,7 @@
       <c r="K21" s="33" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="38" t="inlineStr">
+      <c r="A22" s="46" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
@@ -8400,7 +8430,7 @@
         </is>
       </c>
       <c r="F22" s="33" t="n"/>
-      <c r="G22" s="35" t="inlineStr">
+      <c r="G22" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8415,7 +8445,7 @@
       <c r="K22" s="33" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="40" t="inlineStr">
+      <c r="A23" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -8438,7 +8468,7 @@
         </is>
       </c>
       <c r="F23" s="33" t="n"/>
-      <c r="G23" s="35" t="inlineStr">
+      <c r="G23" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8453,7 +8483,7 @@
       <c r="K23" s="33" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="38" t="inlineStr">
+      <c r="A24" s="46" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
@@ -8476,7 +8506,7 @@
         </is>
       </c>
       <c r="F24" s="33" t="n"/>
-      <c r="G24" s="35" t="inlineStr">
+      <c r="G24" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8491,7 +8521,7 @@
       <c r="K24" s="33" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="40" t="inlineStr">
+      <c r="A25" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -8514,7 +8544,7 @@
         </is>
       </c>
       <c r="F25" s="33" t="n"/>
-      <c r="G25" s="35" t="inlineStr">
+      <c r="G25" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8529,7 +8559,7 @@
       <c r="K25" s="33" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="40" t="inlineStr">
+      <c r="A26" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -8552,7 +8582,7 @@
         </is>
       </c>
       <c r="F26" s="33" t="n"/>
-      <c r="G26" s="35" t="inlineStr">
+      <c r="G26" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8567,7 +8597,7 @@
       <c r="K26" s="33" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="40" t="inlineStr">
+      <c r="A27" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -8590,7 +8620,7 @@
         </is>
       </c>
       <c r="F27" s="33" t="n"/>
-      <c r="G27" s="35" t="inlineStr">
+      <c r="G27" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8605,7 +8635,7 @@
       <c r="K27" s="33" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="40" t="inlineStr">
+      <c r="A28" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -8632,7 +8662,7 @@
           <t>26/09/2025</t>
         </is>
       </c>
-      <c r="G28" s="35" t="inlineStr">
+      <c r="G28" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8647,7 +8677,7 @@
       <c r="K28" s="33" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="38" t="inlineStr">
+      <c r="A29" s="46" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
@@ -8670,7 +8700,7 @@
         </is>
       </c>
       <c r="F29" s="33" t="n"/>
-      <c r="G29" s="35" t="inlineStr">
+      <c r="G29" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8685,7 +8715,7 @@
       <c r="K29" s="33" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="32" t="inlineStr">
+      <c r="A30" s="43" t="inlineStr">
         <is>
           <t>Coripa</t>
         </is>
@@ -8708,7 +8738,7 @@
         </is>
       </c>
       <c r="F30" s="33" t="n"/>
-      <c r="G30" s="35" t="inlineStr">
+      <c r="G30" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8723,7 +8753,7 @@
       <c r="K30" s="33" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="40" t="inlineStr">
+      <c r="A31" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -8746,7 +8776,7 @@
         </is>
       </c>
       <c r="F31" s="33" t="n"/>
-      <c r="G31" s="35" t="inlineStr">
+      <c r="G31" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8761,7 +8791,7 @@
       <c r="K31" s="33" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="32" t="inlineStr">
+      <c r="A32" s="43" t="inlineStr">
         <is>
           <t>Coripa</t>
         </is>
@@ -8784,7 +8814,7 @@
         </is>
       </c>
       <c r="F32" s="33" t="n"/>
-      <c r="G32" s="35" t="inlineStr">
+      <c r="G32" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8799,7 +8829,7 @@
       <c r="K32" s="33" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="36" t="inlineStr">
+      <c r="A33" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -8826,7 +8856,7 @@
           <t>24/09/2025</t>
         </is>
       </c>
-      <c r="G33" s="35" t="inlineStr">
+      <c r="G33" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8841,7 +8871,7 @@
       <c r="K33" s="33" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="36" t="inlineStr">
+      <c r="A34" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -8868,7 +8898,7 @@
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="G34" s="35" t="inlineStr">
+      <c r="G34" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8883,7 +8913,7 @@
       <c r="K34" s="33" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="42" t="inlineStr">
+      <c r="A35" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -8910,7 +8940,7 @@
           <t>29/09/2025</t>
         </is>
       </c>
-      <c r="G35" s="35" t="inlineStr">
+      <c r="G35" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8925,7 +8955,7 @@
       <c r="K35" s="33" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="42" t="inlineStr">
+      <c r="A36" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -8948,7 +8978,7 @@
         </is>
       </c>
       <c r="F36" s="33" t="n"/>
-      <c r="G36" s="35" t="inlineStr">
+      <c r="G36" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8963,7 +8993,7 @@
       <c r="K36" s="33" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="42" t="inlineStr">
+      <c r="A37" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -8986,7 +9016,7 @@
         </is>
       </c>
       <c r="F37" s="33" t="n"/>
-      <c r="G37" s="35" t="inlineStr">
+      <c r="G37" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9001,7 +9031,7 @@
       <c r="K37" s="33" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="42" t="inlineStr">
+      <c r="A38" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -9024,7 +9054,7 @@
         </is>
       </c>
       <c r="F38" s="33" t="n"/>
-      <c r="G38" s="35" t="inlineStr">
+      <c r="G38" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9039,7 +9069,7 @@
       <c r="K38" s="33" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="42" t="inlineStr">
+      <c r="A39" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -9066,7 +9096,7 @@
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="G39" s="35" t="inlineStr">
+      <c r="G39" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9081,7 +9111,7 @@
       <c r="K39" s="33" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="42" t="inlineStr">
+      <c r="A40" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -9104,7 +9134,7 @@
         </is>
       </c>
       <c r="F40" s="33" t="n"/>
-      <c r="G40" s="35" t="inlineStr">
+      <c r="G40" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9119,7 +9149,7 @@
       <c r="K40" s="33" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="42" t="inlineStr">
+      <c r="A41" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -9142,7 +9172,7 @@
         </is>
       </c>
       <c r="F41" s="33" t="n"/>
-      <c r="G41" s="35" t="inlineStr">
+      <c r="G41" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9157,7 +9187,7 @@
       <c r="K41" s="33" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="42" t="inlineStr">
+      <c r="A42" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -9180,7 +9210,7 @@
         </is>
       </c>
       <c r="F42" s="33" t="n"/>
-      <c r="G42" s="35" t="inlineStr">
+      <c r="G42" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9195,7 +9225,7 @@
       <c r="K42" s="33" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="42" t="inlineStr">
+      <c r="A43" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -9222,7 +9252,7 @@
           <t>16/09/2025</t>
         </is>
       </c>
-      <c r="G43" s="35" t="inlineStr">
+      <c r="G43" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9237,7 +9267,7 @@
       <c r="K43" s="33" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="42" t="inlineStr">
+      <c r="A44" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -9264,7 +9294,7 @@
           <t>24/09/2025</t>
         </is>
       </c>
-      <c r="G44" s="35" t="inlineStr">
+      <c r="G44" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9279,7 +9309,7 @@
       <c r="K44" s="33" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="42" t="inlineStr">
+      <c r="A45" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -9306,7 +9336,7 @@
           <t>16/09/2025</t>
         </is>
       </c>
-      <c r="G45" s="35" t="inlineStr">
+      <c r="G45" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9321,7 +9351,7 @@
       <c r="K45" s="33" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="42" t="inlineStr">
+      <c r="A46" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -9344,7 +9374,7 @@
         </is>
       </c>
       <c r="F46" s="33" t="n"/>
-      <c r="G46" s="35" t="inlineStr">
+      <c r="G46" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9359,7 +9389,7 @@
       <c r="K46" s="33" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="42" t="inlineStr">
+      <c r="A47" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -9386,7 +9416,7 @@
           <t>11/09/2025</t>
         </is>
       </c>
-      <c r="G47" s="35" t="inlineStr">
+      <c r="G47" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9539,7 +9569,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="32" t="inlineStr">
+      <c r="A2" s="43" t="inlineStr">
         <is>
           <t>Coripa</t>
         </is>
@@ -9562,7 +9592,7 @@
         </is>
       </c>
       <c r="F2" s="33" t="n"/>
-      <c r="G2" s="35" t="inlineStr">
+      <c r="G2" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9577,7 +9607,7 @@
       <c r="K2" s="33" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="36" t="inlineStr">
+      <c r="A3" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -9600,7 +9630,7 @@
         </is>
       </c>
       <c r="F3" s="33" t="n"/>
-      <c r="G3" s="35" t="inlineStr">
+      <c r="G3" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9615,7 +9645,7 @@
       <c r="K3" s="33" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="38" t="inlineStr">
+      <c r="A4" s="46" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
@@ -9638,7 +9668,7 @@
         </is>
       </c>
       <c r="F4" s="33" t="n"/>
-      <c r="G4" s="35" t="inlineStr">
+      <c r="G4" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9653,7 +9683,7 @@
       <c r="K4" s="33" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="36" t="inlineStr">
+      <c r="A5" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -9680,7 +9710,7 @@
           <t>18/09/2025, 18/09/2025</t>
         </is>
       </c>
-      <c r="G5" s="35" t="inlineStr">
+      <c r="G5" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9695,7 +9725,7 @@
       <c r="K5" s="33" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="36" t="inlineStr">
+      <c r="A6" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -9718,7 +9748,7 @@
         </is>
       </c>
       <c r="F6" s="33" t="n"/>
-      <c r="G6" s="35" t="inlineStr">
+      <c r="G6" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9733,7 +9763,7 @@
       <c r="K6" s="33" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="inlineStr">
+      <c r="A7" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -9756,7 +9786,7 @@
         </is>
       </c>
       <c r="F7" s="33" t="n"/>
-      <c r="G7" s="35" t="inlineStr">
+      <c r="G7" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9771,7 +9801,7 @@
       <c r="K7" s="33" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="32" t="inlineStr">
+      <c r="A8" s="43" t="inlineStr">
         <is>
           <t>Coripa</t>
         </is>
@@ -9798,7 +9828,7 @@
           <t>23/09/2025</t>
         </is>
       </c>
-      <c r="G8" s="35" t="inlineStr">
+      <c r="G8" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9813,7 +9843,7 @@
       <c r="K8" s="33" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="32" t="inlineStr">
+      <c r="A9" s="43" t="inlineStr">
         <is>
           <t>Coripa</t>
         </is>
@@ -9836,7 +9866,7 @@
         </is>
       </c>
       <c r="F9" s="33" t="n"/>
-      <c r="G9" s="35" t="inlineStr">
+      <c r="G9" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9851,7 +9881,7 @@
       <c r="K9" s="33" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="32" t="inlineStr">
+      <c r="A10" s="43" t="inlineStr">
         <is>
           <t>Coripa</t>
         </is>
@@ -9874,7 +9904,7 @@
         </is>
       </c>
       <c r="F10" s="33" t="n"/>
-      <c r="G10" s="35" t="inlineStr">
+      <c r="G10" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9889,7 +9919,7 @@
       <c r="K10" s="33" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="36" t="inlineStr">
+      <c r="A11" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -9916,7 +9946,7 @@
           <t>23/09/2025</t>
         </is>
       </c>
-      <c r="G11" s="35" t="inlineStr">
+      <c r="G11" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9931,7 +9961,7 @@
       <c r="K11" s="33" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="36" t="inlineStr">
+      <c r="A12" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -9958,7 +9988,7 @@
           <t>29/09/2025</t>
         </is>
       </c>
-      <c r="G12" s="35" t="inlineStr">
+      <c r="G12" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9973,7 +10003,7 @@
       <c r="K12" s="33" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="40" t="inlineStr">
+      <c r="A13" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -9996,7 +10026,7 @@
         </is>
       </c>
       <c r="F13" s="33" t="n"/>
-      <c r="G13" s="35" t="inlineStr">
+      <c r="G13" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10011,7 +10041,7 @@
       <c r="K13" s="33" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="40" t="inlineStr">
+      <c r="A14" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -10034,7 +10064,7 @@
         </is>
       </c>
       <c r="F14" s="33" t="n"/>
-      <c r="G14" s="35" t="inlineStr">
+      <c r="G14" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10049,7 +10079,7 @@
       <c r="K14" s="33" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="32" t="inlineStr">
+      <c r="A15" s="43" t="inlineStr">
         <is>
           <t>Coripa</t>
         </is>
@@ -10072,7 +10102,7 @@
         </is>
       </c>
       <c r="F15" s="33" t="n"/>
-      <c r="G15" s="35" t="inlineStr">
+      <c r="G15" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10087,7 +10117,7 @@
       <c r="K15" s="33" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="40" t="inlineStr">
+      <c r="A16" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -10110,7 +10140,7 @@
         </is>
       </c>
       <c r="F16" s="33" t="n"/>
-      <c r="G16" s="35" t="inlineStr">
+      <c r="G16" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10125,7 +10155,7 @@
       <c r="K16" s="33" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="36" t="inlineStr">
+      <c r="A17" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -10152,7 +10182,7 @@
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="G17" s="35" t="inlineStr">
+      <c r="G17" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10167,7 +10197,7 @@
       <c r="K17" s="33" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="40" t="inlineStr">
+      <c r="A18" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -10190,7 +10220,7 @@
         </is>
       </c>
       <c r="F18" s="33" t="n"/>
-      <c r="G18" s="35" t="inlineStr">
+      <c r="G18" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10205,7 +10235,7 @@
       <c r="K18" s="33" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="32" t="inlineStr">
+      <c r="A19" s="43" t="inlineStr">
         <is>
           <t>Coripa</t>
         </is>
@@ -10232,7 +10262,7 @@
           <t>19/09/2025</t>
         </is>
       </c>
-      <c r="G19" s="35" t="inlineStr">
+      <c r="G19" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10247,7 +10277,7 @@
       <c r="K19" s="33" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="36" t="inlineStr">
+      <c r="A20" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -10270,7 +10300,7 @@
         </is>
       </c>
       <c r="F20" s="33" t="n"/>
-      <c r="G20" s="35" t="inlineStr">
+      <c r="G20" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10285,7 +10315,7 @@
       <c r="K20" s="33" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="36" t="inlineStr">
+      <c r="A21" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -10308,7 +10338,7 @@
         </is>
       </c>
       <c r="F21" s="33" t="n"/>
-      <c r="G21" s="35" t="inlineStr">
+      <c r="G21" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10323,7 +10353,7 @@
       <c r="K21" s="33" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="38" t="inlineStr">
+      <c r="A22" s="46" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
@@ -10346,7 +10376,7 @@
         </is>
       </c>
       <c r="F22" s="33" t="n"/>
-      <c r="G22" s="35" t="inlineStr">
+      <c r="G22" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10361,7 +10391,7 @@
       <c r="K22" s="33" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="40" t="inlineStr">
+      <c r="A23" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -10384,7 +10414,7 @@
         </is>
       </c>
       <c r="F23" s="33" t="n"/>
-      <c r="G23" s="35" t="inlineStr">
+      <c r="G23" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10399,7 +10429,7 @@
       <c r="K23" s="33" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="38" t="inlineStr">
+      <c r="A24" s="46" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
@@ -10422,7 +10452,7 @@
         </is>
       </c>
       <c r="F24" s="33" t="n"/>
-      <c r="G24" s="35" t="inlineStr">
+      <c r="G24" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10437,7 +10467,7 @@
       <c r="K24" s="33" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="40" t="inlineStr">
+      <c r="A25" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -10460,7 +10490,7 @@
         </is>
       </c>
       <c r="F25" s="33" t="n"/>
-      <c r="G25" s="35" t="inlineStr">
+      <c r="G25" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10475,7 +10505,7 @@
       <c r="K25" s="33" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="40" t="inlineStr">
+      <c r="A26" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -10498,7 +10528,7 @@
         </is>
       </c>
       <c r="F26" s="33" t="n"/>
-      <c r="G26" s="35" t="inlineStr">
+      <c r="G26" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10513,7 +10543,7 @@
       <c r="K26" s="33" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="40" t="inlineStr">
+      <c r="A27" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -10536,7 +10566,7 @@
         </is>
       </c>
       <c r="F27" s="33" t="n"/>
-      <c r="G27" s="35" t="inlineStr">
+      <c r="G27" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10551,7 +10581,7 @@
       <c r="K27" s="33" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="40" t="inlineStr">
+      <c r="A28" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -10578,7 +10608,7 @@
           <t>26/09/2025</t>
         </is>
       </c>
-      <c r="G28" s="35" t="inlineStr">
+      <c r="G28" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10593,7 +10623,7 @@
       <c r="K28" s="33" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="38" t="inlineStr">
+      <c r="A29" s="46" t="inlineStr">
         <is>
           <t>Cifra</t>
         </is>
@@ -10616,7 +10646,7 @@
         </is>
       </c>
       <c r="F29" s="33" t="n"/>
-      <c r="G29" s="35" t="inlineStr">
+      <c r="G29" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10631,7 +10661,7 @@
       <c r="K29" s="33" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="32" t="inlineStr">
+      <c r="A30" s="43" t="inlineStr">
         <is>
           <t>Coripa</t>
         </is>
@@ -10654,7 +10684,7 @@
         </is>
       </c>
       <c r="F30" s="33" t="n"/>
-      <c r="G30" s="35" t="inlineStr">
+      <c r="G30" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10669,7 +10699,7 @@
       <c r="K30" s="33" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="40" t="inlineStr">
+      <c r="A31" s="47" t="inlineStr">
         <is>
           <t>Comafen</t>
         </is>
@@ -10692,7 +10722,7 @@
         </is>
       </c>
       <c r="F31" s="33" t="n"/>
-      <c r="G31" s="35" t="inlineStr">
+      <c r="G31" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10707,7 +10737,7 @@
       <c r="K31" s="33" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="32" t="inlineStr">
+      <c r="A32" s="43" t="inlineStr">
         <is>
           <t>Coripa</t>
         </is>
@@ -10730,7 +10760,7 @@
         </is>
       </c>
       <c r="F32" s="33" t="n"/>
-      <c r="G32" s="35" t="inlineStr">
+      <c r="G32" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10745,7 +10775,7 @@
       <c r="K32" s="33" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="36" t="inlineStr">
+      <c r="A33" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -10772,7 +10802,7 @@
           <t>24/09/2025</t>
         </is>
       </c>
-      <c r="G33" s="35" t="inlineStr">
+      <c r="G33" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10787,7 +10817,7 @@
       <c r="K33" s="33" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="36" t="inlineStr">
+      <c r="A34" s="45" t="inlineStr">
         <is>
           <t>Cibax</t>
         </is>
@@ -10814,7 +10844,7 @@
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="G34" s="35" t="inlineStr">
+      <c r="G34" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10829,7 +10859,7 @@
       <c r="K34" s="33" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="42" t="inlineStr">
+      <c r="A35" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -10852,7 +10882,7 @@
         </is>
       </c>
       <c r="F35" s="33" t="n"/>
-      <c r="G35" s="35" t="inlineStr">
+      <c r="G35" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10867,7 +10897,7 @@
       <c r="K35" s="33" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="42" t="inlineStr">
+      <c r="A36" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -10890,7 +10920,7 @@
         </is>
       </c>
       <c r="F36" s="33" t="n"/>
-      <c r="G36" s="35" t="inlineStr">
+      <c r="G36" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10905,7 +10935,7 @@
       <c r="K36" s="33" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="42" t="inlineStr">
+      <c r="A37" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -10928,7 +10958,7 @@
         </is>
       </c>
       <c r="F37" s="33" t="n"/>
-      <c r="G37" s="35" t="inlineStr">
+      <c r="G37" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10943,7 +10973,7 @@
       <c r="K37" s="33" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="42" t="inlineStr">
+      <c r="A38" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -10966,7 +10996,7 @@
         </is>
       </c>
       <c r="F38" s="33" t="n"/>
-      <c r="G38" s="35" t="inlineStr">
+      <c r="G38" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10981,7 +11011,7 @@
       <c r="K38" s="33" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="42" t="inlineStr">
+      <c r="A39" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -11008,7 +11038,7 @@
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="G39" s="35" t="inlineStr">
+      <c r="G39" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11023,7 +11053,7 @@
       <c r="K39" s="33" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="42" t="inlineStr">
+      <c r="A40" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -11046,7 +11076,7 @@
         </is>
       </c>
       <c r="F40" s="33" t="n"/>
-      <c r="G40" s="35" t="inlineStr">
+      <c r="G40" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11061,7 +11091,7 @@
       <c r="K40" s="33" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="42" t="inlineStr">
+      <c r="A41" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -11084,7 +11114,7 @@
         </is>
       </c>
       <c r="F41" s="33" t="n"/>
-      <c r="G41" s="35" t="inlineStr">
+      <c r="G41" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11099,7 +11129,7 @@
       <c r="K41" s="33" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="42" t="inlineStr">
+      <c r="A42" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -11122,7 +11152,7 @@
         </is>
       </c>
       <c r="F42" s="33" t="n"/>
-      <c r="G42" s="35" t="inlineStr">
+      <c r="G42" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11137,7 +11167,7 @@
       <c r="K42" s="33" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="42" t="inlineStr">
+      <c r="A43" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -11160,7 +11190,7 @@
         </is>
       </c>
       <c r="F43" s="33" t="n"/>
-      <c r="G43" s="35" t="inlineStr">
+      <c r="G43" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11175,7 +11205,7 @@
       <c r="K43" s="33" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="42" t="inlineStr">
+      <c r="A44" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -11202,7 +11232,7 @@
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="G44" s="35" t="inlineStr">
+      <c r="G44" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11217,7 +11247,7 @@
       <c r="K44" s="33" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="42" t="inlineStr">
+      <c r="A45" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -11240,7 +11270,7 @@
         </is>
       </c>
       <c r="F45" s="33" t="n"/>
-      <c r="G45" s="35" t="inlineStr">
+      <c r="G45" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11255,7 +11285,7 @@
       <c r="K45" s="33" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="42" t="inlineStr">
+      <c r="A46" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -11278,7 +11308,7 @@
         </is>
       </c>
       <c r="F46" s="33" t="n"/>
-      <c r="G46" s="35" t="inlineStr">
+      <c r="G46" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11293,7 +11323,7 @@
       <c r="K46" s="33" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="42" t="inlineStr">
+      <c r="A47" s="48" t="inlineStr">
         <is>
           <t>Conisul</t>
         </is>
@@ -11320,7 +11350,7 @@
           <t>11/09/2025</t>
         </is>
       </c>
-      <c r="G47" s="35" t="inlineStr">
+      <c r="G47" s="44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
